--- a/database/industries/chemical/jam/product/monthly.xlsx
+++ b/database/industries/chemical/jam/product/monthly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="81">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 11 منتهی به 1397/11</t>
   </si>
   <si>
     <t>ماه 12 منتهی به 1397/12</t>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>ماه 12 منتهی به 1401/12</t>
+  </si>
+  <si>
+    <t>ماه 1 منتهی به 1402/01</t>
   </si>
   <si>
     <t>سایر</t>
@@ -709,7 +709,7 @@
   <dimension ref="B1:BB79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,154 +1388,154 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F11" s="11">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G11" s="11">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H11" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11" s="11">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K11" s="11">
+        <v>35</v>
+      </c>
+      <c r="L11" s="11">
         <v>31</v>
       </c>
-      <c r="L11" s="11">
-        <v>35</v>
-      </c>
       <c r="M11" s="11">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N11" s="11">
-        <v>29</v>
+        <v>1712</v>
       </c>
       <c r="O11" s="11">
-        <v>1712</v>
+        <v>3170</v>
       </c>
       <c r="P11" s="11">
-        <v>3170</v>
+        <v>2597</v>
       </c>
       <c r="Q11" s="11">
-        <v>2597</v>
+        <v>5451</v>
       </c>
       <c r="R11" s="11">
-        <v>5451</v>
+        <v>3500</v>
       </c>
       <c r="S11" s="11">
-        <v>3500</v>
+        <v>4945</v>
       </c>
       <c r="T11" s="11">
-        <v>4945</v>
+        <v>2983</v>
       </c>
       <c r="U11" s="11">
-        <v>2983</v>
+        <v>7577</v>
       </c>
       <c r="V11" s="11">
-        <v>7577</v>
+        <v>7500</v>
       </c>
       <c r="W11" s="11">
-        <v>7500</v>
+        <v>8948</v>
       </c>
       <c r="X11" s="11">
-        <v>8948</v>
+        <v>10435</v>
       </c>
       <c r="Y11" s="11">
-        <v>10435</v>
+        <v>9053</v>
       </c>
       <c r="Z11" s="11">
-        <v>9053</v>
+        <v>11816</v>
       </c>
       <c r="AA11" s="11">
-        <v>11816</v>
+        <v>8979</v>
       </c>
       <c r="AB11" s="11">
-        <v>8979</v>
+        <v>10134</v>
       </c>
       <c r="AC11" s="11">
-        <v>10134</v>
+        <v>8977</v>
       </c>
       <c r="AD11" s="11">
-        <v>8977</v>
+        <v>10333</v>
       </c>
       <c r="AE11" s="11">
-        <v>10333</v>
+        <v>10861</v>
       </c>
       <c r="AF11" s="11">
-        <v>10861</v>
+        <v>6896</v>
       </c>
       <c r="AG11" s="11">
-        <v>6896</v>
+        <v>10249</v>
       </c>
       <c r="AH11" s="11">
-        <v>10249</v>
+        <v>8473</v>
       </c>
       <c r="AI11" s="11">
-        <v>8473</v>
+        <v>5707</v>
       </c>
       <c r="AJ11" s="11">
-        <v>5707</v>
+        <v>10231</v>
       </c>
       <c r="AK11" s="11">
-        <v>10231</v>
+        <v>8196</v>
       </c>
       <c r="AL11" s="11">
-        <v>8196</v>
+        <v>2396</v>
       </c>
       <c r="AM11" s="11">
-        <v>2396</v>
+        <v>196</v>
       </c>
       <c r="AN11" s="11">
-        <v>196</v>
+        <v>1989</v>
       </c>
       <c r="AO11" s="11">
-        <v>1989</v>
+        <v>5528</v>
       </c>
       <c r="AP11" s="11">
-        <v>5528</v>
+        <v>9711</v>
       </c>
       <c r="AQ11" s="11">
-        <v>9711</v>
+        <v>4804</v>
       </c>
       <c r="AR11" s="11">
-        <v>4804</v>
+        <v>7635</v>
       </c>
       <c r="AS11" s="11">
-        <v>7635</v>
+        <v>10907</v>
       </c>
       <c r="AT11" s="11">
-        <v>10907</v>
+        <v>205</v>
       </c>
       <c r="AU11" s="11">
-        <v>205</v>
+        <v>8805</v>
       </c>
       <c r="AV11" s="11">
-        <v>8805</v>
+        <v>6672</v>
       </c>
       <c r="AW11" s="11">
-        <v>6672</v>
+        <v>99</v>
       </c>
       <c r="AX11" s="11">
-        <v>99</v>
+        <v>2375</v>
       </c>
       <c r="AY11" s="11">
-        <v>2375</v>
+        <v>10616</v>
       </c>
       <c r="AZ11" s="11">
-        <v>10616</v>
+        <v>11009</v>
       </c>
       <c r="BA11" s="11">
-        <v>11009</v>
+        <v>10158</v>
       </c>
       <c r="BB11" s="11">
-        <v>10158</v>
+        <v>9989</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.25">
@@ -1547,154 +1547,154 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>22414</v>
+        <v>17734</v>
       </c>
       <c r="F12" s="13">
-        <v>17734</v>
+        <v>25995</v>
       </c>
       <c r="G12" s="13">
-        <v>25995</v>
+        <v>22016</v>
       </c>
       <c r="H12" s="13">
-        <v>22016</v>
+        <v>18380</v>
       </c>
       <c r="I12" s="13">
-        <v>18380</v>
+        <v>24276</v>
       </c>
       <c r="J12" s="13">
-        <v>24276</v>
+        <v>25364</v>
       </c>
       <c r="K12" s="13">
-        <v>25364</v>
+        <v>18311</v>
       </c>
       <c r="L12" s="13">
-        <v>18311</v>
+        <v>24976</v>
       </c>
       <c r="M12" s="13">
-        <v>24976</v>
+        <v>25251</v>
       </c>
       <c r="N12" s="13">
-        <v>25251</v>
+        <v>20974</v>
       </c>
       <c r="O12" s="13">
-        <v>20974</v>
+        <v>21982</v>
       </c>
       <c r="P12" s="13">
-        <v>21982</v>
+        <v>23056</v>
       </c>
       <c r="Q12" s="13">
-        <v>23056</v>
+        <v>21600</v>
       </c>
       <c r="R12" s="13">
-        <v>21600</v>
+        <v>26483</v>
       </c>
       <c r="S12" s="13">
-        <v>26483</v>
+        <v>20117</v>
       </c>
       <c r="T12" s="13">
-        <v>20117</v>
+        <v>29978</v>
       </c>
       <c r="U12" s="13">
-        <v>29978</v>
+        <v>28409</v>
       </c>
       <c r="V12" s="13">
-        <v>28409</v>
+        <v>27947</v>
       </c>
       <c r="W12" s="13">
-        <v>27947</v>
+        <v>23146</v>
       </c>
       <c r="X12" s="13">
-        <v>23146</v>
+        <v>24906</v>
       </c>
       <c r="Y12" s="13">
-        <v>24906</v>
+        <v>24186</v>
       </c>
       <c r="Z12" s="13">
-        <v>24186</v>
+        <v>25726</v>
       </c>
       <c r="AA12" s="13">
-        <v>25726</v>
+        <v>26391</v>
       </c>
       <c r="AB12" s="13">
-        <v>26391</v>
+        <v>24677</v>
       </c>
       <c r="AC12" s="13">
-        <v>24677</v>
+        <v>24773</v>
       </c>
       <c r="AD12" s="13">
-        <v>24773</v>
+        <v>27986</v>
       </c>
       <c r="AE12" s="13">
-        <v>27986</v>
+        <v>26380</v>
       </c>
       <c r="AF12" s="13">
-        <v>26380</v>
+        <v>23884</v>
       </c>
       <c r="AG12" s="13">
-        <v>23884</v>
+        <v>23053</v>
       </c>
       <c r="AH12" s="13">
-        <v>23053</v>
+        <v>19495</v>
       </c>
       <c r="AI12" s="13">
-        <v>19495</v>
+        <v>14941</v>
       </c>
       <c r="AJ12" s="13">
-        <v>14941</v>
+        <v>25685</v>
       </c>
       <c r="AK12" s="13">
-        <v>25685</v>
+        <v>24982</v>
       </c>
       <c r="AL12" s="13">
-        <v>24982</v>
+        <v>15831</v>
       </c>
       <c r="AM12" s="13">
-        <v>15831</v>
+        <v>14527</v>
       </c>
       <c r="AN12" s="13">
-        <v>14527</v>
+        <v>23545</v>
       </c>
       <c r="AO12" s="13">
-        <v>23545</v>
+        <v>21563</v>
       </c>
       <c r="AP12" s="13">
-        <v>21563</v>
+        <v>19904</v>
       </c>
       <c r="AQ12" s="13">
-        <v>19904</v>
+        <v>20277</v>
       </c>
       <c r="AR12" s="13">
-        <v>20277</v>
+        <v>22336</v>
       </c>
       <c r="AS12" s="13">
-        <v>22336</v>
+        <v>21291</v>
       </c>
       <c r="AT12" s="13">
-        <v>21291</v>
+        <v>20245</v>
       </c>
       <c r="AU12" s="13">
-        <v>20245</v>
+        <v>22678</v>
       </c>
       <c r="AV12" s="13">
-        <v>22678</v>
+        <v>22926</v>
       </c>
       <c r="AW12" s="13">
-        <v>22926</v>
+        <v>15890</v>
       </c>
       <c r="AX12" s="13">
-        <v>15890</v>
+        <v>21988</v>
       </c>
       <c r="AY12" s="13">
-        <v>21988</v>
+        <v>23220</v>
       </c>
       <c r="AZ12" s="13">
-        <v>23220</v>
+        <v>24694</v>
       </c>
       <c r="BA12" s="13">
-        <v>24694</v>
+        <v>23739</v>
       </c>
       <c r="BB12" s="13">
-        <v>23739</v>
+        <v>26560</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.25">
@@ -1706,154 +1706,154 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>24074</v>
+        <v>16570</v>
       </c>
       <c r="F13" s="11">
-        <v>16570</v>
+        <v>26189</v>
       </c>
       <c r="G13" s="11">
-        <v>26189</v>
+        <v>21491</v>
       </c>
       <c r="H13" s="11">
-        <v>21491</v>
+        <v>24208</v>
       </c>
       <c r="I13" s="11">
-        <v>24208</v>
+        <v>25531</v>
       </c>
       <c r="J13" s="11">
-        <v>25531</v>
+        <v>24903</v>
       </c>
       <c r="K13" s="11">
-        <v>24903</v>
+        <v>21486</v>
       </c>
       <c r="L13" s="11">
-        <v>21486</v>
+        <v>27422</v>
       </c>
       <c r="M13" s="11">
-        <v>27422</v>
+        <v>28004</v>
       </c>
       <c r="N13" s="11">
-        <v>28004</v>
+        <v>28014</v>
       </c>
       <c r="O13" s="11">
-        <v>28014</v>
+        <v>27410</v>
       </c>
       <c r="P13" s="11">
-        <v>27410</v>
+        <v>28387</v>
       </c>
       <c r="Q13" s="11">
-        <v>28387</v>
+        <v>22901</v>
       </c>
       <c r="R13" s="11">
-        <v>22901</v>
+        <v>29588</v>
       </c>
       <c r="S13" s="11">
-        <v>29588</v>
+        <v>27712</v>
       </c>
       <c r="T13" s="11">
-        <v>27712</v>
+        <v>24649</v>
       </c>
       <c r="U13" s="11">
-        <v>24649</v>
+        <v>27242</v>
       </c>
       <c r="V13" s="11">
-        <v>27242</v>
+        <v>22863</v>
       </c>
       <c r="W13" s="11">
-        <v>22863</v>
+        <v>24764</v>
       </c>
       <c r="X13" s="11">
-        <v>24764</v>
+        <v>28116</v>
       </c>
       <c r="Y13" s="11">
-        <v>28116</v>
+        <v>28886</v>
       </c>
       <c r="Z13" s="11">
-        <v>28886</v>
+        <v>28565</v>
       </c>
       <c r="AA13" s="11">
-        <v>28565</v>
+        <v>28954</v>
       </c>
       <c r="AB13" s="11">
-        <v>28954</v>
+        <v>30293</v>
       </c>
       <c r="AC13" s="11">
-        <v>30293</v>
+        <v>31911</v>
       </c>
       <c r="AD13" s="11">
-        <v>31911</v>
+        <v>23475</v>
       </c>
       <c r="AE13" s="11">
-        <v>23475</v>
+        <v>31013</v>
       </c>
       <c r="AF13" s="11">
-        <v>31013</v>
+        <v>30535</v>
       </c>
       <c r="AG13" s="11">
-        <v>30535</v>
+        <v>30566</v>
       </c>
       <c r="AH13" s="11">
-        <v>30566</v>
+        <v>27492</v>
       </c>
       <c r="AI13" s="11">
-        <v>27492</v>
+        <v>29272</v>
       </c>
       <c r="AJ13" s="11">
-        <v>29272</v>
+        <v>28777</v>
       </c>
       <c r="AK13" s="11">
-        <v>28777</v>
+        <v>27406</v>
       </c>
       <c r="AL13" s="11">
-        <v>27406</v>
+        <v>28980</v>
       </c>
       <c r="AM13" s="11">
-        <v>28980</v>
+        <v>26439</v>
       </c>
       <c r="AN13" s="11">
-        <v>26439</v>
+        <v>30206</v>
       </c>
       <c r="AO13" s="11">
-        <v>30206</v>
+        <v>26601</v>
       </c>
       <c r="AP13" s="11">
-        <v>26601</v>
+        <v>30481</v>
       </c>
       <c r="AQ13" s="11">
-        <v>30481</v>
+        <v>30784</v>
       </c>
       <c r="AR13" s="11">
-        <v>30784</v>
+        <v>29547</v>
       </c>
       <c r="AS13" s="11">
-        <v>29547</v>
+        <v>26472</v>
       </c>
       <c r="AT13" s="11">
-        <v>26472</v>
+        <v>24660</v>
       </c>
       <c r="AU13" s="11">
-        <v>24660</v>
+        <v>30824</v>
       </c>
       <c r="AV13" s="11">
-        <v>30824</v>
+        <v>28308</v>
       </c>
       <c r="AW13" s="11">
+        <v>24073</v>
+      </c>
+      <c r="AX13" s="11">
+        <v>29006</v>
+      </c>
+      <c r="AY13" s="11">
         <v>28308</v>
       </c>
-      <c r="AX13" s="11">
-        <v>24073</v>
-      </c>
-      <c r="AY13" s="11">
-        <v>29006</v>
-      </c>
       <c r="AZ13" s="11">
-        <v>28308</v>
+        <v>29209</v>
       </c>
       <c r="BA13" s="11">
-        <v>29209</v>
+        <v>22422</v>
       </c>
       <c r="BB13" s="11">
-        <v>22422</v>
+        <v>28257</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.25">
@@ -1865,154 +1865,154 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>22714</v>
+        <v>18020</v>
       </c>
       <c r="F14" s="13">
-        <v>18020</v>
+        <v>24514</v>
       </c>
       <c r="G14" s="13">
-        <v>24514</v>
+        <v>21461</v>
       </c>
       <c r="H14" s="13">
-        <v>21461</v>
+        <v>20367</v>
       </c>
       <c r="I14" s="13">
-        <v>20367</v>
+        <v>24590</v>
       </c>
       <c r="J14" s="13">
-        <v>24590</v>
+        <v>25423</v>
       </c>
       <c r="K14" s="13">
-        <v>25423</v>
+        <v>18800</v>
       </c>
       <c r="L14" s="13">
-        <v>18800</v>
+        <v>25975</v>
       </c>
       <c r="M14" s="13">
-        <v>25975</v>
+        <v>23895</v>
       </c>
       <c r="N14" s="13">
-        <v>23895</v>
+        <v>20568</v>
       </c>
       <c r="O14" s="13">
-        <v>20568</v>
+        <v>22261</v>
       </c>
       <c r="P14" s="13">
-        <v>22261</v>
+        <v>22099</v>
       </c>
       <c r="Q14" s="13">
-        <v>22099</v>
+        <v>21276</v>
       </c>
       <c r="R14" s="13">
-        <v>21276</v>
+        <v>26260</v>
       </c>
       <c r="S14" s="13">
-        <v>26260</v>
+        <v>18144</v>
       </c>
       <c r="T14" s="13">
-        <v>18144</v>
+        <v>26243</v>
       </c>
       <c r="U14" s="13">
-        <v>26243</v>
+        <v>27282</v>
       </c>
       <c r="V14" s="13">
-        <v>27282</v>
+        <v>26126</v>
       </c>
       <c r="W14" s="13">
-        <v>26126</v>
+        <v>21078</v>
       </c>
       <c r="X14" s="13">
-        <v>21078</v>
+        <v>24193</v>
       </c>
       <c r="Y14" s="13">
-        <v>24193</v>
+        <v>22463</v>
       </c>
       <c r="Z14" s="13">
-        <v>22463</v>
+        <v>24606</v>
       </c>
       <c r="AA14" s="13">
-        <v>24606</v>
+        <v>23166</v>
       </c>
       <c r="AB14" s="13">
-        <v>23166</v>
+        <v>23339</v>
       </c>
       <c r="AC14" s="13">
-        <v>23339</v>
+        <v>23675</v>
       </c>
       <c r="AD14" s="13">
-        <v>23675</v>
+        <v>25076</v>
       </c>
       <c r="AE14" s="13">
-        <v>25076</v>
+        <v>25524</v>
       </c>
       <c r="AF14" s="13">
-        <v>25524</v>
+        <v>24593</v>
       </c>
       <c r="AG14" s="13">
-        <v>24593</v>
+        <v>22823</v>
       </c>
       <c r="AH14" s="13">
-        <v>22823</v>
+        <v>19615</v>
       </c>
       <c r="AI14" s="13">
-        <v>19615</v>
+        <v>15426</v>
       </c>
       <c r="AJ14" s="13">
-        <v>15426</v>
+        <v>22490</v>
       </c>
       <c r="AK14" s="13">
-        <v>22490</v>
+        <v>20883</v>
       </c>
       <c r="AL14" s="13">
-        <v>20883</v>
+        <v>16618</v>
       </c>
       <c r="AM14" s="13">
-        <v>16618</v>
+        <v>15394</v>
       </c>
       <c r="AN14" s="13">
-        <v>15394</v>
+        <v>21312</v>
       </c>
       <c r="AO14" s="13">
-        <v>21312</v>
+        <v>21311</v>
       </c>
       <c r="AP14" s="13">
-        <v>21311</v>
+        <v>20266</v>
       </c>
       <c r="AQ14" s="13">
-        <v>20266</v>
+        <v>21169</v>
       </c>
       <c r="AR14" s="13">
-        <v>21169</v>
+        <v>22124</v>
       </c>
       <c r="AS14" s="13">
-        <v>22124</v>
+        <v>22076</v>
       </c>
       <c r="AT14" s="13">
-        <v>22076</v>
+        <v>20453</v>
       </c>
       <c r="AU14" s="13">
-        <v>20453</v>
+        <v>22237</v>
       </c>
       <c r="AV14" s="13">
-        <v>22237</v>
+        <v>21928</v>
       </c>
       <c r="AW14" s="13">
-        <v>21928</v>
+        <v>15989</v>
       </c>
       <c r="AX14" s="13">
-        <v>15989</v>
+        <v>21246</v>
       </c>
       <c r="AY14" s="13">
-        <v>21246</v>
+        <v>22236</v>
       </c>
       <c r="AZ14" s="13">
-        <v>22236</v>
+        <v>21746</v>
       </c>
       <c r="BA14" s="13">
-        <v>21746</v>
+        <v>20877</v>
       </c>
       <c r="BB14" s="13">
-        <v>20877</v>
+        <v>23601</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.25">
@@ -2024,154 +2024,154 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>90143</v>
+        <v>74303</v>
       </c>
       <c r="F15" s="11">
-        <v>74303</v>
+        <v>111119</v>
       </c>
       <c r="G15" s="11">
-        <v>111119</v>
+        <v>86968</v>
       </c>
       <c r="H15" s="11">
-        <v>86968</v>
+        <v>98909</v>
       </c>
       <c r="I15" s="11">
-        <v>98909</v>
+        <v>102468</v>
       </c>
       <c r="J15" s="11">
-        <v>102468</v>
+        <v>100755</v>
       </c>
       <c r="K15" s="11">
-        <v>100755</v>
+        <v>84095</v>
       </c>
       <c r="L15" s="11">
-        <v>84095</v>
+        <v>107149</v>
       </c>
       <c r="M15" s="11">
-        <v>107149</v>
+        <v>89676</v>
       </c>
       <c r="N15" s="11">
-        <v>89676</v>
+        <v>94365</v>
       </c>
       <c r="O15" s="11">
-        <v>94365</v>
+        <v>96486</v>
       </c>
       <c r="P15" s="11">
-        <v>96486</v>
+        <v>96113</v>
       </c>
       <c r="Q15" s="11">
-        <v>96113</v>
+        <v>91231</v>
       </c>
       <c r="R15" s="11">
-        <v>91231</v>
+        <v>95132</v>
       </c>
       <c r="S15" s="11">
-        <v>95132</v>
+        <v>60467</v>
       </c>
       <c r="T15" s="11">
-        <v>60467</v>
+        <v>107113</v>
       </c>
       <c r="U15" s="11">
-        <v>107113</v>
+        <v>109839</v>
       </c>
       <c r="V15" s="11">
-        <v>109839</v>
+        <v>110115</v>
       </c>
       <c r="W15" s="11">
-        <v>110115</v>
+        <v>95399</v>
       </c>
       <c r="X15" s="11">
-        <v>95399</v>
+        <v>104989</v>
       </c>
       <c r="Y15" s="11">
-        <v>104989</v>
+        <v>105857</v>
       </c>
       <c r="Z15" s="11">
-        <v>105857</v>
+        <v>103686</v>
       </c>
       <c r="AA15" s="11">
-        <v>103686</v>
+        <v>112095</v>
       </c>
       <c r="AB15" s="11">
-        <v>112095</v>
+        <v>101730</v>
       </c>
       <c r="AC15" s="11">
-        <v>101730</v>
+        <v>96263</v>
       </c>
       <c r="AD15" s="11">
-        <v>96263</v>
+        <v>107809</v>
       </c>
       <c r="AE15" s="11">
-        <v>107809</v>
+        <v>105237</v>
       </c>
       <c r="AF15" s="11">
-        <v>105237</v>
+        <v>97757</v>
       </c>
       <c r="AG15" s="11">
-        <v>97757</v>
+        <v>97251</v>
       </c>
       <c r="AH15" s="11">
-        <v>97251</v>
+        <v>77650</v>
       </c>
       <c r="AI15" s="11">
-        <v>77650</v>
+        <v>62800</v>
       </c>
       <c r="AJ15" s="11">
-        <v>62800</v>
+        <v>100680</v>
       </c>
       <c r="AK15" s="11">
-        <v>100680</v>
+        <v>98089</v>
       </c>
       <c r="AL15" s="11">
-        <v>98089</v>
+        <v>91720</v>
       </c>
       <c r="AM15" s="11">
-        <v>91720</v>
+        <v>90864</v>
       </c>
       <c r="AN15" s="11">
-        <v>90864</v>
+        <v>100299</v>
       </c>
       <c r="AO15" s="11">
-        <v>100299</v>
+        <v>91709</v>
       </c>
       <c r="AP15" s="11">
-        <v>91709</v>
+        <v>87445</v>
       </c>
       <c r="AQ15" s="11">
-        <v>87445</v>
+        <v>90785</v>
       </c>
       <c r="AR15" s="11">
-        <v>90785</v>
+        <v>92736</v>
       </c>
       <c r="AS15" s="11">
-        <v>92736</v>
+        <v>95428</v>
       </c>
       <c r="AT15" s="11">
-        <v>95428</v>
+        <v>94139</v>
       </c>
       <c r="AU15" s="11">
-        <v>94139</v>
+        <v>96659</v>
       </c>
       <c r="AV15" s="11">
-        <v>96659</v>
+        <v>94777</v>
       </c>
       <c r="AW15" s="11">
-        <v>94777</v>
+        <v>67440</v>
       </c>
       <c r="AX15" s="11">
-        <v>67440</v>
+        <v>87684</v>
       </c>
       <c r="AY15" s="11">
-        <v>87684</v>
+        <v>89197</v>
       </c>
       <c r="AZ15" s="11">
-        <v>89197</v>
+        <v>91579</v>
       </c>
       <c r="BA15" s="11">
-        <v>91579</v>
+        <v>91625</v>
       </c>
       <c r="BB15" s="11">
-        <v>91625</v>
+        <v>103357</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.25">
@@ -2183,154 +2183,154 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>1818</v>
+        <v>1231</v>
       </c>
       <c r="F16" s="13">
-        <v>1231</v>
+        <v>1755</v>
       </c>
       <c r="G16" s="13">
-        <v>1755</v>
+        <v>1455</v>
       </c>
       <c r="H16" s="13">
-        <v>1455</v>
+        <v>1121</v>
       </c>
       <c r="I16" s="13">
-        <v>1121</v>
+        <v>1496</v>
       </c>
       <c r="J16" s="13">
-        <v>1496</v>
+        <v>1970</v>
       </c>
       <c r="K16" s="13">
-        <v>1970</v>
+        <v>1480</v>
       </c>
       <c r="L16" s="13">
-        <v>1480</v>
+        <v>1855</v>
       </c>
       <c r="M16" s="13">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="N16" s="13">
-        <v>1851</v>
+        <v>1502</v>
       </c>
       <c r="O16" s="13">
+        <v>1354</v>
+      </c>
+      <c r="P16" s="13">
+        <v>1404</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>1443</v>
+      </c>
+      <c r="R16" s="13">
+        <v>1949</v>
+      </c>
+      <c r="S16" s="13">
+        <v>1649</v>
+      </c>
+      <c r="T16" s="13">
+        <v>2579</v>
+      </c>
+      <c r="U16" s="13">
+        <v>2377</v>
+      </c>
+      <c r="V16" s="13">
+        <v>2144</v>
+      </c>
+      <c r="W16" s="13">
+        <v>1726</v>
+      </c>
+      <c r="X16" s="13">
+        <v>1959</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>1775</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>1561</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>1887</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>1789</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>1734</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>1760</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>1698</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>1799</v>
+      </c>
+      <c r="AG16" s="13">
+        <v>1505</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>1355</v>
+      </c>
+      <c r="AI16" s="13">
+        <v>1044</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>1797</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>1773</v>
+      </c>
+      <c r="AL16" s="13">
+        <v>1123</v>
+      </c>
+      <c r="AM16" s="13">
+        <v>911</v>
+      </c>
+      <c r="AN16" s="13">
+        <v>1724</v>
+      </c>
+      <c r="AO16" s="13">
+        <v>1434</v>
+      </c>
+      <c r="AP16" s="13">
+        <v>1218</v>
+      </c>
+      <c r="AQ16" s="13">
+        <v>1169</v>
+      </c>
+      <c r="AR16" s="13">
+        <v>1497</v>
+      </c>
+      <c r="AS16" s="13">
+        <v>1392</v>
+      </c>
+      <c r="AT16" s="13">
+        <v>1410</v>
+      </c>
+      <c r="AU16" s="13">
+        <v>1421</v>
+      </c>
+      <c r="AV16" s="13">
+        <v>1707</v>
+      </c>
+      <c r="AW16" s="13">
+        <v>1202</v>
+      </c>
+      <c r="AX16" s="13">
+        <v>1549</v>
+      </c>
+      <c r="AY16" s="13">
         <v>1502</v>
       </c>
-      <c r="P16" s="13">
-        <v>1354</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>1404</v>
-      </c>
-      <c r="R16" s="13">
-        <v>1443</v>
-      </c>
-      <c r="S16" s="13">
-        <v>1949</v>
-      </c>
-      <c r="T16" s="13">
-        <v>1649</v>
-      </c>
-      <c r="U16" s="13">
-        <v>2579</v>
-      </c>
-      <c r="V16" s="13">
-        <v>2377</v>
-      </c>
-      <c r="W16" s="13">
-        <v>2144</v>
-      </c>
-      <c r="X16" s="13">
-        <v>1726</v>
-      </c>
-      <c r="Y16" s="13">
-        <v>1959</v>
-      </c>
-      <c r="Z16" s="13">
-        <v>1775</v>
-      </c>
-      <c r="AA16" s="13">
-        <v>1561</v>
-      </c>
-      <c r="AB16" s="13">
-        <v>1887</v>
-      </c>
-      <c r="AC16" s="13">
-        <v>1789</v>
-      </c>
-      <c r="AD16" s="13">
-        <v>1734</v>
-      </c>
-      <c r="AE16" s="13">
-        <v>1760</v>
-      </c>
-      <c r="AF16" s="13">
-        <v>1698</v>
-      </c>
-      <c r="AG16" s="13">
-        <v>1799</v>
-      </c>
-      <c r="AH16" s="13">
-        <v>1505</v>
-      </c>
-      <c r="AI16" s="13">
-        <v>1355</v>
-      </c>
-      <c r="AJ16" s="13">
-        <v>1044</v>
-      </c>
-      <c r="AK16" s="13">
-        <v>1797</v>
-      </c>
-      <c r="AL16" s="13">
-        <v>1773</v>
-      </c>
-      <c r="AM16" s="13">
-        <v>1123</v>
-      </c>
-      <c r="AN16" s="13">
-        <v>911</v>
-      </c>
-      <c r="AO16" s="13">
-        <v>1724</v>
-      </c>
-      <c r="AP16" s="13">
-        <v>1434</v>
-      </c>
-      <c r="AQ16" s="13">
-        <v>1218</v>
-      </c>
-      <c r="AR16" s="13">
-        <v>1169</v>
-      </c>
-      <c r="AS16" s="13">
-        <v>1497</v>
-      </c>
-      <c r="AT16" s="13">
-        <v>1392</v>
-      </c>
-      <c r="AU16" s="13">
-        <v>1410</v>
-      </c>
-      <c r="AV16" s="13">
-        <v>1421</v>
-      </c>
-      <c r="AW16" s="13">
-        <v>1707</v>
-      </c>
-      <c r="AX16" s="13">
-        <v>1202</v>
-      </c>
-      <c r="AY16" s="13">
-        <v>1549</v>
-      </c>
       <c r="AZ16" s="13">
-        <v>1502</v>
+        <v>1603</v>
       </c>
       <c r="BA16" s="13">
-        <v>1603</v>
+        <v>1508</v>
       </c>
       <c r="BB16" s="13">
-        <v>1508</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.25">
@@ -2342,154 +2342,154 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>2313</v>
+        <v>0</v>
       </c>
       <c r="F17" s="11">
-        <v>0</v>
+        <v>2599</v>
       </c>
       <c r="G17" s="11">
-        <v>2599</v>
+        <v>1479</v>
       </c>
       <c r="H17" s="11">
-        <v>1479</v>
+        <v>548</v>
       </c>
       <c r="I17" s="11">
+        <v>2562</v>
+      </c>
+      <c r="J17" s="11">
+        <v>1003</v>
+      </c>
+      <c r="K17" s="11">
+        <v>461</v>
+      </c>
+      <c r="L17" s="11">
+        <v>4043</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>1853</v>
+      </c>
+      <c r="O17" s="11">
+        <v>811</v>
+      </c>
+      <c r="P17" s="11">
+        <v>3045</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>0</v>
+      </c>
+      <c r="R17" s="11">
+        <v>1550</v>
+      </c>
+      <c r="S17" s="11">
+        <v>1523</v>
+      </c>
+      <c r="T17" s="11">
+        <v>17</v>
+      </c>
+      <c r="U17" s="11">
+        <v>0</v>
+      </c>
+      <c r="V17" s="11">
+        <v>3897</v>
+      </c>
+      <c r="W17" s="11">
+        <v>0</v>
+      </c>
+      <c r="X17" s="11">
+        <v>2195</v>
+      </c>
+      <c r="Y17" s="11">
+        <v>1599</v>
+      </c>
+      <c r="Z17" s="11">
+        <v>1508</v>
+      </c>
+      <c r="AA17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="11">
+        <v>3425</v>
+      </c>
+      <c r="AC17" s="11">
+        <v>707</v>
+      </c>
+      <c r="AD17" s="11">
+        <v>1295</v>
+      </c>
+      <c r="AE17" s="11">
+        <v>1712</v>
+      </c>
+      <c r="AF17" s="11">
+        <v>1393</v>
+      </c>
+      <c r="AG17" s="11">
+        <v>2112</v>
+      </c>
+      <c r="AH17" s="11">
+        <v>2486</v>
+      </c>
+      <c r="AI17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="11">
+        <v>3015</v>
+      </c>
+      <c r="AK17" s="11">
+        <v>579</v>
+      </c>
+      <c r="AL17" s="11">
+        <v>1269</v>
+      </c>
+      <c r="AM17" s="11">
+        <v>1653</v>
+      </c>
+      <c r="AN17" s="11">
+        <v>2291</v>
+      </c>
+      <c r="AO17" s="11">
         <v>548</v>
       </c>
-      <c r="J17" s="11">
-        <v>2562</v>
-      </c>
-      <c r="K17" s="11">
-        <v>1003</v>
-      </c>
-      <c r="L17" s="11">
-        <v>461</v>
-      </c>
-      <c r="M17" s="11">
-        <v>4043</v>
-      </c>
-      <c r="N17" s="11">
-        <v>0</v>
-      </c>
-      <c r="O17" s="11">
-        <v>1853</v>
-      </c>
-      <c r="P17" s="11">
-        <v>811</v>
-      </c>
-      <c r="Q17" s="11">
-        <v>3045</v>
-      </c>
-      <c r="R17" s="11">
-        <v>0</v>
-      </c>
-      <c r="S17" s="11">
-        <v>1550</v>
-      </c>
-      <c r="T17" s="11">
-        <v>1523</v>
-      </c>
-      <c r="U17" s="11">
-        <v>17</v>
-      </c>
-      <c r="V17" s="11">
-        <v>0</v>
-      </c>
-      <c r="W17" s="11">
-        <v>3897</v>
-      </c>
-      <c r="X17" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="11">
-        <v>2195</v>
-      </c>
-      <c r="Z17" s="11">
-        <v>1599</v>
-      </c>
-      <c r="AA17" s="11">
-        <v>1508</v>
-      </c>
-      <c r="AB17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="11">
-        <v>3425</v>
-      </c>
-      <c r="AD17" s="11">
-        <v>707</v>
-      </c>
-      <c r="AE17" s="11">
-        <v>1295</v>
-      </c>
-      <c r="AF17" s="11">
-        <v>1712</v>
-      </c>
-      <c r="AG17" s="11">
-        <v>1393</v>
-      </c>
-      <c r="AH17" s="11">
-        <v>2112</v>
-      </c>
-      <c r="AI17" s="11">
-        <v>2486</v>
-      </c>
-      <c r="AJ17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="11">
-        <v>3015</v>
-      </c>
-      <c r="AL17" s="11">
-        <v>579</v>
-      </c>
-      <c r="AM17" s="11">
-        <v>1269</v>
-      </c>
-      <c r="AN17" s="11">
-        <v>1653</v>
-      </c>
-      <c r="AO17" s="11">
-        <v>2291</v>
-      </c>
       <c r="AP17" s="11">
-        <v>548</v>
+        <v>2960</v>
       </c>
       <c r="AQ17" s="11">
-        <v>2960</v>
+        <v>1791</v>
       </c>
       <c r="AR17" s="11">
-        <v>1791</v>
+        <v>691</v>
       </c>
       <c r="AS17" s="11">
-        <v>691</v>
+        <v>3234</v>
       </c>
       <c r="AT17" s="11">
-        <v>3234</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="11">
-        <v>0</v>
+        <v>3263</v>
       </c>
       <c r="AV17" s="11">
-        <v>3263</v>
+        <v>0</v>
       </c>
       <c r="AW17" s="11">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="AX17" s="11">
-        <v>2047</v>
+        <v>2035</v>
       </c>
       <c r="AY17" s="11">
-        <v>2035</v>
+        <v>1396</v>
       </c>
       <c r="AZ17" s="11">
-        <v>1396</v>
+        <v>3288</v>
       </c>
       <c r="BA17" s="11">
-        <v>3288</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="11">
-        <v>0</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.25">
@@ -2501,154 +2501,154 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>21163</v>
+        <v>16086</v>
       </c>
       <c r="F18" s="13">
-        <v>16086</v>
+        <v>28485</v>
       </c>
       <c r="G18" s="13">
-        <v>28485</v>
+        <v>23205</v>
       </c>
       <c r="H18" s="13">
-        <v>23205</v>
+        <v>30015</v>
       </c>
       <c r="I18" s="13">
-        <v>30015</v>
+        <v>29331</v>
       </c>
       <c r="J18" s="13">
-        <v>29331</v>
+        <v>31391</v>
       </c>
       <c r="K18" s="13">
-        <v>31391</v>
+        <v>21714</v>
       </c>
       <c r="L18" s="13">
-        <v>21714</v>
+        <v>25140</v>
       </c>
       <c r="M18" s="13">
-        <v>25140</v>
+        <v>24880</v>
       </c>
       <c r="N18" s="13">
-        <v>24880</v>
+        <v>28894</v>
       </c>
       <c r="O18" s="13">
-        <v>28894</v>
+        <v>27735</v>
       </c>
       <c r="P18" s="13">
-        <v>27735</v>
+        <v>29700</v>
       </c>
       <c r="Q18" s="13">
-        <v>29700</v>
+        <v>24842</v>
       </c>
       <c r="R18" s="13">
-        <v>24842</v>
+        <v>30011</v>
       </c>
       <c r="S18" s="13">
-        <v>30011</v>
+        <v>29501</v>
       </c>
       <c r="T18" s="13">
-        <v>29501</v>
+        <v>27942</v>
       </c>
       <c r="U18" s="13">
-        <v>27942</v>
+        <v>28651</v>
       </c>
       <c r="V18" s="13">
-        <v>28651</v>
+        <v>27898</v>
       </c>
       <c r="W18" s="13">
-        <v>27898</v>
+        <v>27111</v>
       </c>
       <c r="X18" s="13">
-        <v>27111</v>
+        <v>31806</v>
       </c>
       <c r="Y18" s="13">
-        <v>31806</v>
+        <v>32851</v>
       </c>
       <c r="Z18" s="13">
-        <v>32851</v>
+        <v>33845</v>
       </c>
       <c r="AA18" s="13">
-        <v>33845</v>
+        <v>32854</v>
       </c>
       <c r="AB18" s="13">
-        <v>32854</v>
+        <v>33876</v>
       </c>
       <c r="AC18" s="13">
-        <v>33876</v>
+        <v>36376</v>
       </c>
       <c r="AD18" s="13">
-        <v>36376</v>
+        <v>35653</v>
       </c>
       <c r="AE18" s="13">
-        <v>35653</v>
+        <v>25246</v>
       </c>
       <c r="AF18" s="13">
-        <v>25246</v>
+        <v>23629</v>
       </c>
       <c r="AG18" s="13">
-        <v>23629</v>
+        <v>33627</v>
       </c>
       <c r="AH18" s="13">
-        <v>33627</v>
+        <v>21003</v>
       </c>
       <c r="AI18" s="13">
-        <v>21003</v>
+        <v>23615</v>
       </c>
       <c r="AJ18" s="13">
-        <v>23615</v>
+        <v>29785</v>
       </c>
       <c r="AK18" s="13">
-        <v>29785</v>
+        <v>36112</v>
       </c>
       <c r="AL18" s="13">
-        <v>36112</v>
+        <v>28724</v>
       </c>
       <c r="AM18" s="13">
-        <v>28724</v>
+        <v>30268</v>
       </c>
       <c r="AN18" s="13">
-        <v>30268</v>
+        <v>34047</v>
       </c>
       <c r="AO18" s="13">
-        <v>34047</v>
+        <v>30201</v>
       </c>
       <c r="AP18" s="13">
-        <v>30201</v>
+        <v>37362</v>
       </c>
       <c r="AQ18" s="13">
-        <v>37362</v>
+        <v>30028</v>
       </c>
       <c r="AR18" s="13">
-        <v>30028</v>
+        <v>35508</v>
       </c>
       <c r="AS18" s="13">
-        <v>35508</v>
+        <v>33192</v>
       </c>
       <c r="AT18" s="13">
-        <v>33192</v>
+        <v>33629</v>
       </c>
       <c r="AU18" s="13">
-        <v>33629</v>
+        <v>36022</v>
       </c>
       <c r="AV18" s="13">
-        <v>36022</v>
+        <v>34572</v>
       </c>
       <c r="AW18" s="13">
-        <v>34572</v>
+        <v>23054</v>
       </c>
       <c r="AX18" s="13">
-        <v>23054</v>
+        <v>25139</v>
       </c>
       <c r="AY18" s="13">
-        <v>25139</v>
+        <v>34403</v>
       </c>
       <c r="AZ18" s="13">
-        <v>34403</v>
+        <v>34883</v>
       </c>
       <c r="BA18" s="13">
-        <v>34883</v>
+        <v>29938</v>
       </c>
       <c r="BB18" s="13">
-        <v>29938</v>
+        <v>25136</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.25">
@@ -2660,154 +2660,154 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>5884</v>
+        <v>7242</v>
       </c>
       <c r="F19" s="11">
-        <v>7242</v>
+        <v>9354</v>
       </c>
       <c r="G19" s="11">
-        <v>9354</v>
+        <v>5650</v>
       </c>
       <c r="H19" s="11">
-        <v>5650</v>
+        <v>7505</v>
       </c>
       <c r="I19" s="11">
-        <v>7505</v>
+        <v>8046</v>
       </c>
       <c r="J19" s="11">
-        <v>8046</v>
+        <v>5679</v>
       </c>
       <c r="K19" s="11">
-        <v>5679</v>
+        <v>5372</v>
       </c>
       <c r="L19" s="11">
-        <v>5372</v>
+        <v>9714</v>
       </c>
       <c r="M19" s="11">
-        <v>9714</v>
+        <v>6385</v>
       </c>
       <c r="N19" s="11">
-        <v>6385</v>
+        <v>7808</v>
       </c>
       <c r="O19" s="11">
-        <v>7808</v>
+        <v>9773</v>
       </c>
       <c r="P19" s="11">
-        <v>9773</v>
+        <v>7568</v>
       </c>
       <c r="Q19" s="11">
-        <v>7568</v>
+        <v>6374</v>
       </c>
       <c r="R19" s="11">
-        <v>6374</v>
+        <v>6509</v>
       </c>
       <c r="S19" s="11">
-        <v>6509</v>
+        <v>4351</v>
       </c>
       <c r="T19" s="11">
-        <v>4351</v>
+        <v>5363</v>
       </c>
       <c r="U19" s="11">
-        <v>5363</v>
+        <v>2831</v>
       </c>
       <c r="V19" s="11">
-        <v>2831</v>
+        <v>9739</v>
       </c>
       <c r="W19" s="11">
-        <v>9739</v>
+        <v>7739</v>
       </c>
       <c r="X19" s="11">
-        <v>7739</v>
+        <v>9477</v>
       </c>
       <c r="Y19" s="11">
-        <v>9477</v>
+        <v>8668</v>
       </c>
       <c r="Z19" s="11">
-        <v>8668</v>
+        <v>9893</v>
       </c>
       <c r="AA19" s="11">
-        <v>9893</v>
+        <v>9359</v>
       </c>
       <c r="AB19" s="11">
-        <v>9359</v>
+        <v>11099</v>
       </c>
       <c r="AC19" s="11">
-        <v>11099</v>
+        <v>9568</v>
       </c>
       <c r="AD19" s="11">
-        <v>9568</v>
+        <v>11164</v>
       </c>
       <c r="AE19" s="11">
-        <v>11164</v>
+        <v>11265</v>
       </c>
       <c r="AF19" s="11">
-        <v>11265</v>
+        <v>6670</v>
       </c>
       <c r="AG19" s="11">
-        <v>6670</v>
+        <v>9834</v>
       </c>
       <c r="AH19" s="11">
-        <v>9834</v>
+        <v>8388</v>
       </c>
       <c r="AI19" s="11">
-        <v>8388</v>
+        <v>5302</v>
       </c>
       <c r="AJ19" s="11">
-        <v>5302</v>
+        <v>10492</v>
       </c>
       <c r="AK19" s="11">
-        <v>10492</v>
+        <v>7965</v>
       </c>
       <c r="AL19" s="11">
-        <v>7965</v>
+        <v>2177</v>
       </c>
       <c r="AM19" s="11">
-        <v>2177</v>
+        <v>0</v>
       </c>
       <c r="AN19" s="11">
-        <v>0</v>
+        <v>2017</v>
       </c>
       <c r="AO19" s="11">
-        <v>2017</v>
+        <v>5239</v>
       </c>
       <c r="AP19" s="11">
-        <v>5239</v>
+        <v>10662</v>
       </c>
       <c r="AQ19" s="11">
-        <v>10662</v>
+        <v>5127</v>
       </c>
       <c r="AR19" s="11">
-        <v>5127</v>
+        <v>8187</v>
       </c>
       <c r="AS19" s="11">
-        <v>8187</v>
+        <v>11152</v>
       </c>
       <c r="AT19" s="11">
-        <v>11152</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="11">
-        <v>0</v>
+        <v>9445</v>
       </c>
       <c r="AV19" s="11">
-        <v>9445</v>
+        <v>7008</v>
       </c>
       <c r="AW19" s="11">
-        <v>7008</v>
+        <v>0</v>
       </c>
       <c r="AX19" s="11">
-        <v>0</v>
+        <v>2503</v>
       </c>
       <c r="AY19" s="11">
-        <v>2503</v>
+        <v>10019</v>
       </c>
       <c r="AZ19" s="11">
-        <v>10019</v>
+        <v>10763</v>
       </c>
       <c r="BA19" s="11">
-        <v>10763</v>
+        <v>10038</v>
       </c>
       <c r="BB19" s="11">
-        <v>10038</v>
+        <v>10024</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.25">
@@ -2921,8 +2921,8 @@
       <c r="T21" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="U21" s="17" t="s">
-        <v>67</v>
+      <c r="U21" s="17">
+        <v>0</v>
       </c>
       <c r="V21" s="17">
         <v>0</v>
@@ -3031,154 +3031,154 @@
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19">
-        <v>190555</v>
+        <v>151211</v>
       </c>
       <c r="F22" s="19">
-        <v>151211</v>
+        <v>230032</v>
       </c>
       <c r="G22" s="19">
-        <v>230032</v>
+        <v>183736</v>
       </c>
       <c r="H22" s="19">
-        <v>183736</v>
+        <v>201063</v>
       </c>
       <c r="I22" s="19">
-        <v>201063</v>
+        <v>218330</v>
       </c>
       <c r="J22" s="19">
-        <v>218330</v>
+        <v>216519</v>
       </c>
       <c r="K22" s="19">
-        <v>216519</v>
+        <v>171754</v>
       </c>
       <c r="L22" s="19">
-        <v>171754</v>
+        <v>226305</v>
       </c>
       <c r="M22" s="19">
-        <v>226305</v>
+        <v>199971</v>
       </c>
       <c r="N22" s="19">
-        <v>199971</v>
+        <v>205690</v>
       </c>
       <c r="O22" s="19">
-        <v>205690</v>
+        <v>210982</v>
       </c>
       <c r="P22" s="19">
-        <v>210982</v>
+        <v>213969</v>
       </c>
       <c r="Q22" s="19">
-        <v>213969</v>
+        <v>195118</v>
       </c>
       <c r="R22" s="19">
-        <v>195118</v>
+        <v>220982</v>
       </c>
       <c r="S22" s="19">
-        <v>220982</v>
+        <v>168409</v>
       </c>
       <c r="T22" s="19">
-        <v>168409</v>
+        <v>226867</v>
       </c>
       <c r="U22" s="19">
-        <v>226867</v>
+        <v>234208</v>
       </c>
       <c r="V22" s="19">
-        <v>234208</v>
+        <v>238229</v>
       </c>
       <c r="W22" s="19">
-        <v>238229</v>
+        <v>209911</v>
       </c>
       <c r="X22" s="19">
-        <v>209911</v>
+        <v>238076</v>
       </c>
       <c r="Y22" s="19">
-        <v>238076</v>
+        <v>235338</v>
       </c>
       <c r="Z22" s="19">
-        <v>235338</v>
+        <v>241206</v>
       </c>
       <c r="AA22" s="19">
-        <v>241206</v>
+        <v>243685</v>
       </c>
       <c r="AB22" s="19">
-        <v>243685</v>
+        <v>240362</v>
       </c>
       <c r="AC22" s="19">
-        <v>240362</v>
+        <v>233984</v>
       </c>
       <c r="AD22" s="19">
-        <v>233984</v>
+        <v>244551</v>
       </c>
       <c r="AE22" s="19">
-        <v>244551</v>
+        <v>238936</v>
       </c>
       <c r="AF22" s="19">
-        <v>238936</v>
+        <v>217156</v>
       </c>
       <c r="AG22" s="19">
-        <v>217156</v>
+        <v>231020</v>
       </c>
       <c r="AH22" s="19">
-        <v>231020</v>
+        <v>185957</v>
       </c>
       <c r="AI22" s="19">
-        <v>185957</v>
+        <v>158107</v>
       </c>
       <c r="AJ22" s="19">
-        <v>158107</v>
+        <v>232952</v>
       </c>
       <c r="AK22" s="19">
-        <v>232952</v>
+        <v>225985</v>
       </c>
       <c r="AL22" s="19">
-        <v>225985</v>
+        <v>188838</v>
       </c>
       <c r="AM22" s="19">
-        <v>188838</v>
+        <v>180252</v>
       </c>
       <c r="AN22" s="19">
-        <v>180252</v>
+        <v>217430</v>
       </c>
       <c r="AO22" s="19">
-        <v>217430</v>
+        <v>204134</v>
       </c>
       <c r="AP22" s="19">
-        <v>204134</v>
+        <v>220009</v>
       </c>
       <c r="AQ22" s="19">
-        <v>220009</v>
+        <v>205934</v>
       </c>
       <c r="AR22" s="19">
-        <v>205934</v>
+        <v>220261</v>
       </c>
       <c r="AS22" s="19">
-        <v>220261</v>
+        <v>225144</v>
       </c>
       <c r="AT22" s="19">
-        <v>225144</v>
+        <v>194741</v>
       </c>
       <c r="AU22" s="19">
-        <v>194741</v>
+        <v>231354</v>
       </c>
       <c r="AV22" s="19">
-        <v>231354</v>
+        <v>217898</v>
       </c>
       <c r="AW22" s="19">
-        <v>217898</v>
+        <v>149794</v>
       </c>
       <c r="AX22" s="19">
-        <v>149794</v>
+        <v>193525</v>
       </c>
       <c r="AY22" s="19">
-        <v>193525</v>
+        <v>220897</v>
       </c>
       <c r="AZ22" s="19">
-        <v>220897</v>
+        <v>228774</v>
       </c>
       <c r="BA22" s="19">
-        <v>228774</v>
+        <v>210305</v>
       </c>
       <c r="BB22" s="19">
-        <v>210305</v>
+        <v>231132</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.25">
@@ -3624,154 +3624,154 @@
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F29" s="11">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G29" s="11">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H29" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I29" s="11">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J29" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K29" s="11">
+        <v>35</v>
+      </c>
+      <c r="L29" s="11">
         <v>31</v>
       </c>
-      <c r="L29" s="11">
-        <v>35</v>
-      </c>
       <c r="M29" s="11">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N29" s="11">
-        <v>29</v>
+        <v>1531</v>
       </c>
       <c r="O29" s="11">
-        <v>1531</v>
+        <v>3170</v>
       </c>
       <c r="P29" s="11">
-        <v>3170</v>
+        <v>2597</v>
       </c>
       <c r="Q29" s="11">
-        <v>2597</v>
+        <v>825</v>
       </c>
       <c r="R29" s="11">
-        <v>825</v>
+        <v>3138</v>
       </c>
       <c r="S29" s="11">
-        <v>3138</v>
+        <v>1849</v>
       </c>
       <c r="T29" s="11">
-        <v>1849</v>
+        <v>2983</v>
       </c>
       <c r="U29" s="11">
-        <v>2983</v>
+        <v>4554</v>
       </c>
       <c r="V29" s="11">
-        <v>4554</v>
+        <v>4064</v>
       </c>
       <c r="W29" s="11">
         <v>4064</v>
       </c>
       <c r="X29" s="11">
-        <v>4064</v>
+        <v>4781</v>
       </c>
       <c r="Y29" s="11">
-        <v>4781</v>
+        <v>941</v>
       </c>
       <c r="Z29" s="11">
-        <v>941</v>
+        <v>2162</v>
       </c>
       <c r="AA29" s="11">
-        <v>2162</v>
+        <v>3837</v>
       </c>
       <c r="AB29" s="11">
-        <v>3837</v>
+        <v>4188</v>
       </c>
       <c r="AC29" s="11">
-        <v>4188</v>
+        <v>11263</v>
       </c>
       <c r="AD29" s="11">
-        <v>11263</v>
+        <v>3683</v>
       </c>
       <c r="AE29" s="11">
-        <v>3683</v>
+        <v>4898</v>
       </c>
       <c r="AF29" s="11">
-        <v>4898</v>
+        <v>2740</v>
       </c>
       <c r="AG29" s="11">
-        <v>2740</v>
+        <v>2932</v>
       </c>
       <c r="AH29" s="11">
-        <v>2932</v>
+        <v>3177</v>
       </c>
       <c r="AI29" s="11">
-        <v>3177</v>
+        <v>1525</v>
       </c>
       <c r="AJ29" s="11">
-        <v>1525</v>
+        <v>3241</v>
       </c>
       <c r="AK29" s="11">
-        <v>3241</v>
+        <v>3059</v>
       </c>
       <c r="AL29" s="11">
-        <v>3059</v>
+        <v>721</v>
       </c>
       <c r="AM29" s="11">
-        <v>721</v>
+        <v>1</v>
       </c>
       <c r="AN29" s="11">
-        <v>1</v>
+        <v>1103</v>
       </c>
       <c r="AO29" s="11">
-        <v>1103</v>
+        <v>2499</v>
       </c>
       <c r="AP29" s="11">
-        <v>2499</v>
+        <v>2496</v>
       </c>
       <c r="AQ29" s="11">
-        <v>2496</v>
+        <v>442</v>
       </c>
       <c r="AR29" s="11">
-        <v>442</v>
+        <v>1143</v>
       </c>
       <c r="AS29" s="11">
-        <v>1143</v>
+        <v>1894</v>
       </c>
       <c r="AT29" s="11">
-        <v>1894</v>
+        <v>146</v>
       </c>
       <c r="AU29" s="11">
-        <v>146</v>
+        <v>-6413</v>
       </c>
       <c r="AV29" s="11">
-        <v>-6413</v>
+        <v>737</v>
       </c>
       <c r="AW29" s="11">
-        <v>737</v>
+        <v>3</v>
       </c>
       <c r="AX29" s="11">
-        <v>3</v>
+        <v>1432</v>
       </c>
       <c r="AY29" s="11">
-        <v>1432</v>
+        <v>208</v>
       </c>
       <c r="AZ29" s="11">
-        <v>208</v>
+        <v>503</v>
       </c>
       <c r="BA29" s="11">
-        <v>503</v>
+        <v>685</v>
       </c>
       <c r="BB29" s="11">
-        <v>685</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.25">
@@ -3783,154 +3783,154 @@
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
-        <v>23071</v>
+        <v>17410</v>
       </c>
       <c r="F30" s="13">
-        <v>17410</v>
+        <v>26651</v>
       </c>
       <c r="G30" s="13">
-        <v>26651</v>
+        <v>21437</v>
       </c>
       <c r="H30" s="13">
-        <v>21437</v>
+        <v>19407</v>
       </c>
       <c r="I30" s="13">
-        <v>19407</v>
+        <v>24436</v>
       </c>
       <c r="J30" s="13">
-        <v>24436</v>
+        <v>25576</v>
       </c>
       <c r="K30" s="13">
-        <v>25576</v>
+        <v>17868</v>
       </c>
       <c r="L30" s="13">
-        <v>17868</v>
+        <v>25553</v>
       </c>
       <c r="M30" s="13">
-        <v>25553</v>
+        <v>26274</v>
       </c>
       <c r="N30" s="13">
-        <v>26274</v>
+        <v>20636</v>
       </c>
       <c r="O30" s="13">
-        <v>20636</v>
+        <v>22279</v>
       </c>
       <c r="P30" s="13">
-        <v>22279</v>
+        <v>23626</v>
       </c>
       <c r="Q30" s="13">
-        <v>23626</v>
+        <v>20857</v>
       </c>
       <c r="R30" s="13">
-        <v>20857</v>
+        <v>26773</v>
       </c>
       <c r="S30" s="13">
-        <v>26773</v>
+        <v>20614</v>
       </c>
       <c r="T30" s="13">
-        <v>20614</v>
+        <v>28688</v>
       </c>
       <c r="U30" s="13">
-        <v>28688</v>
+        <v>28324</v>
       </c>
       <c r="V30" s="13">
-        <v>28324</v>
+        <v>29151</v>
       </c>
       <c r="W30" s="13">
-        <v>29151</v>
+        <v>23431</v>
       </c>
       <c r="X30" s="13">
-        <v>23431</v>
+        <v>25851</v>
       </c>
       <c r="Y30" s="13">
-        <v>25851</v>
+        <v>25015</v>
       </c>
       <c r="Z30" s="13">
-        <v>25015</v>
+        <v>24930</v>
       </c>
       <c r="AA30" s="13">
-        <v>24930</v>
+        <v>26582</v>
       </c>
       <c r="AB30" s="13">
-        <v>26582</v>
+        <v>26020</v>
       </c>
       <c r="AC30" s="13">
-        <v>26020</v>
+        <v>24273</v>
       </c>
       <c r="AD30" s="13">
-        <v>24273</v>
+        <v>27913</v>
       </c>
       <c r="AE30" s="13">
-        <v>27913</v>
+        <v>27289</v>
       </c>
       <c r="AF30" s="13">
-        <v>27289</v>
+        <v>24695</v>
       </c>
       <c r="AG30" s="13">
-        <v>24695</v>
+        <v>22780</v>
       </c>
       <c r="AH30" s="13">
-        <v>22780</v>
+        <v>19786</v>
       </c>
       <c r="AI30" s="13">
-        <v>19786</v>
+        <v>14878</v>
       </c>
       <c r="AJ30" s="13">
-        <v>14878</v>
+        <v>25807</v>
       </c>
       <c r="AK30" s="13">
-        <v>25807</v>
+        <v>25086</v>
       </c>
       <c r="AL30" s="13">
-        <v>25086</v>
+        <v>15118</v>
       </c>
       <c r="AM30" s="13">
-        <v>15118</v>
+        <v>19966</v>
       </c>
       <c r="AN30" s="13">
-        <v>19966</v>
+        <v>24270</v>
       </c>
       <c r="AO30" s="13">
-        <v>24270</v>
+        <v>22044</v>
       </c>
       <c r="AP30" s="13">
-        <v>22044</v>
+        <v>20394</v>
       </c>
       <c r="AQ30" s="13">
-        <v>20394</v>
+        <v>19674</v>
       </c>
       <c r="AR30" s="13">
-        <v>19674</v>
+        <v>23316</v>
       </c>
       <c r="AS30" s="13">
-        <v>23316</v>
+        <v>21215</v>
       </c>
       <c r="AT30" s="13">
-        <v>21215</v>
+        <v>20526</v>
       </c>
       <c r="AU30" s="13">
-        <v>20526</v>
+        <v>22456</v>
       </c>
       <c r="AV30" s="13">
-        <v>22456</v>
+        <v>23151</v>
       </c>
       <c r="AW30" s="13">
-        <v>23151</v>
+        <v>16609</v>
       </c>
       <c r="AX30" s="13">
-        <v>16609</v>
+        <v>21295</v>
       </c>
       <c r="AY30" s="13">
-        <v>21295</v>
+        <v>24158</v>
       </c>
       <c r="AZ30" s="13">
-        <v>24158</v>
+        <v>23103</v>
       </c>
       <c r="BA30" s="13">
-        <v>23103</v>
+        <v>20997</v>
       </c>
       <c r="BB30" s="13">
-        <v>20997</v>
+        <v>24500</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.25">
@@ -3942,154 +3942,154 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>30757</v>
+        <v>35290</v>
       </c>
       <c r="F31" s="11">
-        <v>35290</v>
+        <v>44852</v>
       </c>
       <c r="G31" s="11">
-        <v>44852</v>
+        <v>40226</v>
       </c>
       <c r="H31" s="11">
-        <v>40226</v>
+        <v>37557</v>
       </c>
       <c r="I31" s="11">
-        <v>37557</v>
+        <v>54002</v>
       </c>
       <c r="J31" s="11">
-        <v>54002</v>
+        <v>31768</v>
       </c>
       <c r="K31" s="11">
-        <v>31768</v>
+        <v>19530</v>
       </c>
       <c r="L31" s="11">
-        <v>19530</v>
+        <v>19976</v>
       </c>
       <c r="M31" s="11">
-        <v>19976</v>
+        <v>21142</v>
       </c>
       <c r="N31" s="11">
-        <v>21142</v>
+        <v>22587</v>
       </c>
       <c r="O31" s="11">
-        <v>22587</v>
+        <v>22320</v>
       </c>
       <c r="P31" s="11">
-        <v>22320</v>
+        <v>21514</v>
       </c>
       <c r="Q31" s="11">
-        <v>21514</v>
+        <v>29708</v>
       </c>
       <c r="R31" s="11">
-        <v>29708</v>
+        <v>21345</v>
       </c>
       <c r="S31" s="11">
-        <v>21345</v>
+        <v>29320</v>
       </c>
       <c r="T31" s="11">
-        <v>29320</v>
+        <v>19020</v>
       </c>
       <c r="U31" s="11">
-        <v>19020</v>
+        <v>22200</v>
       </c>
       <c r="V31" s="11">
-        <v>22200</v>
+        <v>13250</v>
       </c>
       <c r="W31" s="11">
-        <v>13250</v>
+        <v>28964</v>
       </c>
       <c r="X31" s="11">
-        <v>28964</v>
+        <v>21573</v>
       </c>
       <c r="Y31" s="11">
-        <v>21573</v>
+        <v>31224</v>
       </c>
       <c r="Z31" s="11">
-        <v>31224</v>
+        <v>32571</v>
       </c>
       <c r="AA31" s="11">
-        <v>32571</v>
+        <v>28554</v>
       </c>
       <c r="AB31" s="11">
-        <v>28554</v>
+        <v>32065</v>
       </c>
       <c r="AC31" s="11">
-        <v>32065</v>
+        <v>39816</v>
       </c>
       <c r="AD31" s="11">
-        <v>39816</v>
+        <v>23550</v>
       </c>
       <c r="AE31" s="11">
-        <v>23550</v>
+        <v>22295</v>
       </c>
       <c r="AF31" s="11">
-        <v>22295</v>
+        <v>25750</v>
       </c>
       <c r="AG31" s="11">
-        <v>25750</v>
+        <v>35679</v>
       </c>
       <c r="AH31" s="11">
-        <v>35679</v>
+        <v>20634</v>
       </c>
       <c r="AI31" s="11">
-        <v>20634</v>
+        <v>31017</v>
       </c>
       <c r="AJ31" s="11">
-        <v>31017</v>
+        <v>24385</v>
       </c>
       <c r="AK31" s="11">
-        <v>24385</v>
+        <v>25713</v>
       </c>
       <c r="AL31" s="11">
-        <v>25713</v>
+        <v>15511</v>
       </c>
       <c r="AM31" s="11">
-        <v>15511</v>
+        <v>38905</v>
       </c>
       <c r="AN31" s="11">
-        <v>38905</v>
+        <v>29033</v>
       </c>
       <c r="AO31" s="11">
-        <v>29033</v>
+        <v>31762</v>
       </c>
       <c r="AP31" s="11">
-        <v>31762</v>
+        <v>31104</v>
       </c>
       <c r="AQ31" s="11">
-        <v>31104</v>
+        <v>30905</v>
       </c>
       <c r="AR31" s="11">
-        <v>30905</v>
+        <v>23119</v>
       </c>
       <c r="AS31" s="11">
-        <v>23119</v>
+        <v>23899</v>
       </c>
       <c r="AT31" s="11">
-        <v>23899</v>
+        <v>31631</v>
       </c>
       <c r="AU31" s="11">
-        <v>31631</v>
+        <v>33291</v>
       </c>
       <c r="AV31" s="11">
-        <v>33291</v>
+        <v>38342</v>
       </c>
       <c r="AW31" s="11">
-        <v>38342</v>
+        <v>36268</v>
       </c>
       <c r="AX31" s="11">
-        <v>36268</v>
+        <v>31349</v>
       </c>
       <c r="AY31" s="11">
-        <v>31349</v>
+        <v>31205</v>
       </c>
       <c r="AZ31" s="11">
-        <v>31205</v>
+        <v>30202</v>
       </c>
       <c r="BA31" s="11">
-        <v>30202</v>
+        <v>25849</v>
       </c>
       <c r="BB31" s="11">
-        <v>25849</v>
+        <v>16115</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.25">
@@ -4101,154 +4101,154 @@
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>20908</v>
+        <v>19293</v>
       </c>
       <c r="F32" s="13">
-        <v>19293</v>
+        <v>23874</v>
       </c>
       <c r="G32" s="13">
-        <v>23874</v>
+        <v>19974</v>
       </c>
       <c r="H32" s="13">
-        <v>19974</v>
+        <v>20840</v>
       </c>
       <c r="I32" s="13">
-        <v>20840</v>
+        <v>23275</v>
       </c>
       <c r="J32" s="13">
-        <v>23275</v>
+        <v>27706</v>
       </c>
       <c r="K32" s="13">
-        <v>27706</v>
+        <v>19015</v>
       </c>
       <c r="L32" s="13">
+        <v>25386</v>
+      </c>
+      <c r="M32" s="13">
+        <v>26975</v>
+      </c>
+      <c r="N32" s="13">
+        <v>22634</v>
+      </c>
+      <c r="O32" s="13">
+        <v>23954</v>
+      </c>
+      <c r="P32" s="13">
+        <v>23899</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>18847</v>
+      </c>
+      <c r="R32" s="13">
+        <v>26951</v>
+      </c>
+      <c r="S32" s="13">
+        <v>18467</v>
+      </c>
+      <c r="T32" s="13">
+        <v>25965</v>
+      </c>
+      <c r="U32" s="13">
+        <v>27363</v>
+      </c>
+      <c r="V32" s="13">
+        <v>22805</v>
+      </c>
+      <c r="W32" s="13">
+        <v>21036</v>
+      </c>
+      <c r="X32" s="13">
+        <v>21770</v>
+      </c>
+      <c r="Y32" s="13">
+        <v>22892</v>
+      </c>
+      <c r="Z32" s="13">
+        <v>25401</v>
+      </c>
+      <c r="AA32" s="13">
+        <v>22870</v>
+      </c>
+      <c r="AB32" s="13">
+        <v>23366</v>
+      </c>
+      <c r="AC32" s="13">
+        <v>21377</v>
+      </c>
+      <c r="AD32" s="13">
+        <v>25246</v>
+      </c>
+      <c r="AE32" s="13">
+        <v>27585</v>
+      </c>
+      <c r="AF32" s="13">
+        <v>26416</v>
+      </c>
+      <c r="AG32" s="13">
+        <v>20248</v>
+      </c>
+      <c r="AH32" s="13">
         <v>19015</v>
       </c>
-      <c r="M32" s="13">
-        <v>25386</v>
-      </c>
-      <c r="N32" s="13">
-        <v>26975</v>
-      </c>
-      <c r="O32" s="13">
-        <v>22634</v>
-      </c>
-      <c r="P32" s="13">
-        <v>23954</v>
-      </c>
-      <c r="Q32" s="13">
-        <v>23899</v>
-      </c>
-      <c r="R32" s="13">
-        <v>18847</v>
-      </c>
-      <c r="S32" s="13">
-        <v>26951</v>
-      </c>
-      <c r="T32" s="13">
-        <v>18467</v>
-      </c>
-      <c r="U32" s="13">
-        <v>25965</v>
-      </c>
-      <c r="V32" s="13">
-        <v>27363</v>
-      </c>
-      <c r="W32" s="13">
-        <v>22805</v>
-      </c>
-      <c r="X32" s="13">
-        <v>21036</v>
-      </c>
-      <c r="Y32" s="13">
-        <v>21770</v>
-      </c>
-      <c r="Z32" s="13">
-        <v>22892</v>
-      </c>
-      <c r="AA32" s="13">
-        <v>25401</v>
-      </c>
-      <c r="AB32" s="13">
-        <v>22870</v>
-      </c>
-      <c r="AC32" s="13">
-        <v>23366</v>
-      </c>
-      <c r="AD32" s="13">
-        <v>21377</v>
-      </c>
-      <c r="AE32" s="13">
-        <v>25246</v>
-      </c>
-      <c r="AF32" s="13">
-        <v>27585</v>
-      </c>
-      <c r="AG32" s="13">
-        <v>26416</v>
-      </c>
-      <c r="AH32" s="13">
-        <v>20248</v>
-      </c>
       <c r="AI32" s="13">
-        <v>19015</v>
+        <v>14565</v>
       </c>
       <c r="AJ32" s="13">
-        <v>14565</v>
+        <v>24362</v>
       </c>
       <c r="AK32" s="13">
-        <v>24362</v>
+        <v>20528</v>
       </c>
       <c r="AL32" s="13">
-        <v>20528</v>
+        <v>17707</v>
       </c>
       <c r="AM32" s="13">
-        <v>17707</v>
+        <v>11516</v>
       </c>
       <c r="AN32" s="13">
-        <v>11516</v>
+        <v>22260</v>
       </c>
       <c r="AO32" s="13">
-        <v>22260</v>
+        <v>17278</v>
       </c>
       <c r="AP32" s="13">
-        <v>17278</v>
+        <v>20172</v>
       </c>
       <c r="AQ32" s="13">
-        <v>20172</v>
+        <v>17577</v>
       </c>
       <c r="AR32" s="13">
-        <v>17577</v>
+        <v>17502</v>
       </c>
       <c r="AS32" s="13">
-        <v>17502</v>
+        <v>16834</v>
       </c>
       <c r="AT32" s="13">
-        <v>16834</v>
+        <v>13511</v>
       </c>
       <c r="AU32" s="13">
-        <v>13511</v>
+        <v>19274</v>
       </c>
       <c r="AV32" s="13">
-        <v>19274</v>
+        <v>17304</v>
       </c>
       <c r="AW32" s="13">
-        <v>17304</v>
+        <v>11676</v>
       </c>
       <c r="AX32" s="13">
-        <v>11676</v>
+        <v>19604</v>
       </c>
       <c r="AY32" s="13">
-        <v>19604</v>
+        <v>20090</v>
       </c>
       <c r="AZ32" s="13">
-        <v>20090</v>
+        <v>18164</v>
       </c>
       <c r="BA32" s="13">
-        <v>18164</v>
+        <v>15020</v>
       </c>
       <c r="BB32" s="13">
-        <v>15020</v>
+        <v>18169</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.25">
@@ -4260,154 +4260,154 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>45681</v>
+        <v>16829</v>
       </c>
       <c r="F33" s="11">
-        <v>16829</v>
+        <v>52660</v>
       </c>
       <c r="G33" s="11">
-        <v>52660</v>
+        <v>36957</v>
       </c>
       <c r="H33" s="11">
-        <v>36957</v>
+        <v>51379</v>
       </c>
       <c r="I33" s="11">
-        <v>51379</v>
+        <v>47367</v>
       </c>
       <c r="J33" s="11">
-        <v>47367</v>
+        <v>44626</v>
       </c>
       <c r="K33" s="11">
-        <v>44626</v>
+        <v>54605</v>
       </c>
       <c r="L33" s="11">
-        <v>54605</v>
+        <v>48071</v>
       </c>
       <c r="M33" s="11">
-        <v>48071</v>
+        <v>42137</v>
       </c>
       <c r="N33" s="11">
-        <v>42137</v>
+        <v>35185</v>
       </c>
       <c r="O33" s="11">
-        <v>35185</v>
+        <v>38724</v>
       </c>
       <c r="P33" s="11">
-        <v>38724</v>
+        <v>39170</v>
       </c>
       <c r="Q33" s="11">
-        <v>39170</v>
+        <v>33700</v>
       </c>
       <c r="R33" s="11">
-        <v>33700</v>
+        <v>37302</v>
       </c>
       <c r="S33" s="11">
-        <v>37302</v>
+        <v>18362</v>
       </c>
       <c r="T33" s="11">
-        <v>18362</v>
+        <v>43758</v>
       </c>
       <c r="U33" s="11">
-        <v>43758</v>
+        <v>54234</v>
       </c>
       <c r="V33" s="11">
-        <v>54234</v>
+        <v>56952</v>
       </c>
       <c r="W33" s="11">
-        <v>56952</v>
+        <v>51007</v>
       </c>
       <c r="X33" s="11">
-        <v>51007</v>
+        <v>36039</v>
       </c>
       <c r="Y33" s="11">
-        <v>36039</v>
+        <v>37939</v>
       </c>
       <c r="Z33" s="11">
-        <v>37939</v>
+        <v>46266</v>
       </c>
       <c r="AA33" s="11">
-        <v>46266</v>
+        <v>47497</v>
       </c>
       <c r="AB33" s="11">
-        <v>47497</v>
+        <v>37109</v>
       </c>
       <c r="AC33" s="11">
-        <v>37109</v>
+        <v>61248</v>
       </c>
       <c r="AD33" s="11">
-        <v>61248</v>
+        <v>41770</v>
       </c>
       <c r="AE33" s="11">
-        <v>41770</v>
+        <v>49372</v>
       </c>
       <c r="AF33" s="11">
-        <v>49372</v>
+        <v>60228</v>
       </c>
       <c r="AG33" s="11">
-        <v>60228</v>
+        <v>34329</v>
       </c>
       <c r="AH33" s="11">
-        <v>34329</v>
+        <v>32747</v>
       </c>
       <c r="AI33" s="11">
-        <v>32747</v>
+        <v>15337</v>
       </c>
       <c r="AJ33" s="11">
-        <v>15337</v>
+        <v>38226</v>
       </c>
       <c r="AK33" s="11">
-        <v>38226</v>
+        <v>39179</v>
       </c>
       <c r="AL33" s="11">
-        <v>39179</v>
+        <v>29139</v>
       </c>
       <c r="AM33" s="11">
-        <v>29139</v>
+        <v>44584</v>
       </c>
       <c r="AN33" s="11">
-        <v>44584</v>
+        <v>34401</v>
       </c>
       <c r="AO33" s="11">
-        <v>34401</v>
+        <v>19364</v>
       </c>
       <c r="AP33" s="11">
-        <v>19364</v>
+        <v>24061</v>
       </c>
       <c r="AQ33" s="11">
-        <v>24061</v>
+        <v>25879</v>
       </c>
       <c r="AR33" s="11">
-        <v>25879</v>
+        <v>33356</v>
       </c>
       <c r="AS33" s="11">
-        <v>33356</v>
+        <v>28270</v>
       </c>
       <c r="AT33" s="11">
-        <v>28270</v>
+        <v>31524</v>
       </c>
       <c r="AU33" s="11">
-        <v>31524</v>
+        <v>29155</v>
       </c>
       <c r="AV33" s="11">
-        <v>29155</v>
+        <v>26347</v>
       </c>
       <c r="AW33" s="11">
-        <v>26347</v>
+        <v>22614</v>
       </c>
       <c r="AX33" s="11">
-        <v>22614</v>
+        <v>32319</v>
       </c>
       <c r="AY33" s="11">
-        <v>32319</v>
+        <v>35558</v>
       </c>
       <c r="AZ33" s="11">
-        <v>35558</v>
+        <v>27160</v>
       </c>
       <c r="BA33" s="11">
-        <v>27160</v>
+        <v>32695</v>
       </c>
       <c r="BB33" s="11">
-        <v>32695</v>
+        <v>37788</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.25">
@@ -4419,154 +4419,154 @@
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>1849</v>
+        <v>1249</v>
       </c>
       <c r="F34" s="13">
-        <v>1249</v>
+        <v>1728</v>
       </c>
       <c r="G34" s="13">
-        <v>1728</v>
+        <v>1476</v>
       </c>
       <c r="H34" s="13">
-        <v>1476</v>
+        <v>1166</v>
       </c>
       <c r="I34" s="13">
-        <v>1166</v>
+        <v>1496</v>
       </c>
       <c r="J34" s="13">
-        <v>1496</v>
+        <v>1984</v>
       </c>
       <c r="K34" s="13">
-        <v>1984</v>
+        <v>1459</v>
       </c>
       <c r="L34" s="13">
-        <v>1459</v>
+        <v>1862</v>
       </c>
       <c r="M34" s="13">
-        <v>1862</v>
+        <v>1853</v>
       </c>
       <c r="N34" s="13">
-        <v>1853</v>
+        <v>1498</v>
       </c>
       <c r="O34" s="13">
-        <v>1498</v>
+        <v>1363</v>
       </c>
       <c r="P34" s="13">
-        <v>1363</v>
+        <v>1337</v>
       </c>
       <c r="Q34" s="13">
         <v>1337</v>
       </c>
       <c r="R34" s="13">
-        <v>1337</v>
+        <v>1940</v>
       </c>
       <c r="S34" s="13">
-        <v>1940</v>
+        <v>1605</v>
       </c>
       <c r="T34" s="13">
-        <v>1605</v>
+        <v>2545</v>
       </c>
       <c r="U34" s="13">
-        <v>2545</v>
+        <v>2350</v>
       </c>
       <c r="V34" s="13">
-        <v>2350</v>
+        <v>2165</v>
       </c>
       <c r="W34" s="13">
-        <v>2165</v>
+        <v>2074</v>
       </c>
       <c r="X34" s="13">
-        <v>2074</v>
+        <v>1998</v>
       </c>
       <c r="Y34" s="13">
-        <v>1998</v>
+        <v>1632</v>
       </c>
       <c r="Z34" s="13">
-        <v>1632</v>
+        <v>1602</v>
       </c>
       <c r="AA34" s="13">
-        <v>1602</v>
+        <v>1952</v>
       </c>
       <c r="AB34" s="13">
-        <v>1952</v>
+        <v>1802</v>
       </c>
       <c r="AC34" s="13">
-        <v>1802</v>
+        <v>1779</v>
       </c>
       <c r="AD34" s="13">
-        <v>1779</v>
+        <v>1813</v>
       </c>
       <c r="AE34" s="13">
-        <v>1813</v>
+        <v>1706</v>
       </c>
       <c r="AF34" s="13">
-        <v>1706</v>
+        <v>1788</v>
       </c>
       <c r="AG34" s="13">
-        <v>1788</v>
+        <v>1456</v>
       </c>
       <c r="AH34" s="13">
-        <v>1456</v>
+        <v>1417</v>
       </c>
       <c r="AI34" s="13">
-        <v>1417</v>
+        <v>1069</v>
       </c>
       <c r="AJ34" s="13">
-        <v>1069</v>
+        <v>1782</v>
       </c>
       <c r="AK34" s="13">
-        <v>1782</v>
+        <v>1678</v>
       </c>
       <c r="AL34" s="13">
-        <v>1678</v>
+        <v>1189</v>
       </c>
       <c r="AM34" s="13">
-        <v>1189</v>
+        <v>897</v>
       </c>
       <c r="AN34" s="13">
-        <v>897</v>
+        <v>1789</v>
       </c>
       <c r="AO34" s="13">
-        <v>1789</v>
+        <v>1493</v>
       </c>
       <c r="AP34" s="13">
-        <v>1493</v>
+        <v>1132</v>
       </c>
       <c r="AQ34" s="13">
-        <v>1132</v>
+        <v>1174</v>
       </c>
       <c r="AR34" s="13">
-        <v>1174</v>
+        <v>1421</v>
       </c>
       <c r="AS34" s="13">
-        <v>1421</v>
+        <v>1359</v>
       </c>
       <c r="AT34" s="13">
-        <v>1359</v>
+        <v>1488</v>
       </c>
       <c r="AU34" s="13">
-        <v>1488</v>
+        <v>1439</v>
       </c>
       <c r="AV34" s="13">
-        <v>1439</v>
+        <v>1671</v>
       </c>
       <c r="AW34" s="13">
-        <v>1671</v>
+        <v>1182</v>
       </c>
       <c r="AX34" s="13">
-        <v>1182</v>
+        <v>1445</v>
       </c>
       <c r="AY34" s="13">
-        <v>1445</v>
+        <v>1591</v>
       </c>
       <c r="AZ34" s="13">
-        <v>1591</v>
+        <v>1561</v>
       </c>
       <c r="BA34" s="13">
-        <v>1561</v>
+        <v>1566</v>
       </c>
       <c r="BB34" s="13">
-        <v>1566</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.25">
@@ -4578,154 +4578,154 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>584</v>
+        <v>610</v>
       </c>
       <c r="F35" s="11">
-        <v>610</v>
+        <v>1372</v>
       </c>
       <c r="G35" s="11">
-        <v>1372</v>
+        <v>741</v>
       </c>
       <c r="H35" s="11">
-        <v>741</v>
+        <v>696</v>
       </c>
       <c r="I35" s="11">
-        <v>696</v>
+        <v>1241</v>
       </c>
       <c r="J35" s="11">
-        <v>1241</v>
+        <v>1465</v>
       </c>
       <c r="K35" s="11">
-        <v>1465</v>
+        <v>663</v>
       </c>
       <c r="L35" s="11">
-        <v>663</v>
+        <v>640</v>
       </c>
       <c r="M35" s="11">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="N35" s="11">
-        <v>653</v>
+        <v>1204</v>
       </c>
       <c r="O35" s="11">
-        <v>1204</v>
+        <v>707</v>
       </c>
       <c r="P35" s="11">
-        <v>707</v>
+        <v>729</v>
       </c>
       <c r="Q35" s="11">
-        <v>729</v>
+        <v>1090</v>
       </c>
       <c r="R35" s="11">
-        <v>1090</v>
+        <v>684</v>
       </c>
       <c r="S35" s="11">
-        <v>684</v>
+        <v>243</v>
       </c>
       <c r="T35" s="11">
-        <v>243</v>
+        <v>17</v>
       </c>
       <c r="U35" s="11">
-        <v>17</v>
+        <v>620</v>
       </c>
       <c r="V35" s="11">
-        <v>620</v>
+        <v>755</v>
       </c>
       <c r="W35" s="11">
-        <v>755</v>
+        <v>567</v>
       </c>
       <c r="X35" s="11">
-        <v>567</v>
+        <v>616</v>
       </c>
       <c r="Y35" s="11">
-        <v>616</v>
+        <v>743</v>
       </c>
       <c r="Z35" s="11">
-        <v>743</v>
+        <v>657</v>
       </c>
       <c r="AA35" s="11">
-        <v>657</v>
+        <v>596</v>
       </c>
       <c r="AB35" s="11">
-        <v>596</v>
+        <v>724</v>
       </c>
       <c r="AC35" s="11">
-        <v>724</v>
+        <v>646</v>
       </c>
       <c r="AD35" s="11">
+        <v>612</v>
+      </c>
+      <c r="AE35" s="11">
+        <v>874</v>
+      </c>
+      <c r="AF35" s="11">
+        <v>1027</v>
+      </c>
+      <c r="AG35" s="11">
+        <v>614</v>
+      </c>
+      <c r="AH35" s="11">
+        <v>930</v>
+      </c>
+      <c r="AI35" s="11">
+        <v>599</v>
+      </c>
+      <c r="AJ35" s="11">
+        <v>345</v>
+      </c>
+      <c r="AK35" s="11">
+        <v>76</v>
+      </c>
+      <c r="AL35" s="11">
+        <v>434</v>
+      </c>
+      <c r="AM35" s="11">
+        <v>1086</v>
+      </c>
+      <c r="AN35" s="11">
         <v>646</v>
       </c>
-      <c r="AE35" s="11">
-        <v>612</v>
-      </c>
-      <c r="AF35" s="11">
-        <v>874</v>
-      </c>
-      <c r="AG35" s="11">
-        <v>1027</v>
-      </c>
-      <c r="AH35" s="11">
-        <v>614</v>
-      </c>
-      <c r="AI35" s="11">
+      <c r="AO35" s="11">
+        <v>411</v>
+      </c>
+      <c r="AP35" s="11">
+        <v>546</v>
+      </c>
+      <c r="AQ35" s="11">
+        <v>745</v>
+      </c>
+      <c r="AR35" s="11">
+        <v>674</v>
+      </c>
+      <c r="AS35" s="11">
+        <v>680</v>
+      </c>
+      <c r="AT35" s="11">
+        <v>678</v>
+      </c>
+      <c r="AU35" s="11">
+        <v>758</v>
+      </c>
+      <c r="AV35" s="11">
+        <v>733</v>
+      </c>
+      <c r="AW35" s="11">
         <v>930</v>
       </c>
-      <c r="AJ35" s="11">
-        <v>599</v>
-      </c>
-      <c r="AK35" s="11">
-        <v>345</v>
-      </c>
-      <c r="AL35" s="11">
-        <v>76</v>
-      </c>
-      <c r="AM35" s="11">
-        <v>434</v>
-      </c>
-      <c r="AN35" s="11">
-        <v>1086</v>
-      </c>
-      <c r="AO35" s="11">
-        <v>646</v>
-      </c>
-      <c r="AP35" s="11">
-        <v>411</v>
-      </c>
-      <c r="AQ35" s="11">
-        <v>546</v>
-      </c>
-      <c r="AR35" s="11">
-        <v>745</v>
-      </c>
-      <c r="AS35" s="11">
-        <v>674</v>
-      </c>
-      <c r="AT35" s="11">
-        <v>680</v>
-      </c>
-      <c r="AU35" s="11">
-        <v>678</v>
-      </c>
-      <c r="AV35" s="11">
-        <v>758</v>
-      </c>
-      <c r="AW35" s="11">
-        <v>733</v>
-      </c>
       <c r="AX35" s="11">
-        <v>930</v>
+        <v>1120</v>
       </c>
       <c r="AY35" s="11">
-        <v>1120</v>
+        <v>1024</v>
       </c>
       <c r="AZ35" s="11">
-        <v>1024</v>
+        <v>768</v>
       </c>
       <c r="BA35" s="11">
-        <v>768</v>
+        <v>803</v>
       </c>
       <c r="BB35" s="11">
-        <v>803</v>
+        <v>986</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.25">
@@ -4737,154 +4737,154 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>2100</v>
+        <v>3200</v>
       </c>
       <c r="F36" s="13">
-        <v>3200</v>
+        <v>4981</v>
       </c>
       <c r="G36" s="13">
-        <v>4981</v>
+        <v>4470</v>
       </c>
       <c r="H36" s="13">
-        <v>4470</v>
+        <v>4170</v>
       </c>
       <c r="I36" s="13">
-        <v>4170</v>
+        <v>860</v>
       </c>
       <c r="J36" s="13">
-        <v>860</v>
+        <v>33227</v>
       </c>
       <c r="K36" s="13">
-        <v>33227</v>
+        <v>17814</v>
       </c>
       <c r="L36" s="13">
-        <v>17814</v>
+        <v>19325</v>
       </c>
       <c r="M36" s="13">
-        <v>19325</v>
+        <v>20523</v>
       </c>
       <c r="N36" s="13">
-        <v>20523</v>
+        <v>23695</v>
       </c>
       <c r="O36" s="13">
-        <v>23695</v>
+        <v>21520</v>
       </c>
       <c r="P36" s="13">
-        <v>21520</v>
+        <v>22123</v>
       </c>
       <c r="Q36" s="13">
-        <v>22123</v>
+        <v>27137</v>
       </c>
       <c r="R36" s="13">
-        <v>27137</v>
+        <v>22514</v>
       </c>
       <c r="S36" s="13">
-        <v>22514</v>
+        <v>24330</v>
       </c>
       <c r="T36" s="13">
-        <v>24330</v>
+        <v>21245</v>
       </c>
       <c r="U36" s="13">
-        <v>21245</v>
+        <v>22773</v>
       </c>
       <c r="V36" s="13">
-        <v>22773</v>
+        <v>16264</v>
       </c>
       <c r="W36" s="13">
-        <v>16264</v>
+        <v>34206</v>
       </c>
       <c r="X36" s="13">
-        <v>34206</v>
+        <v>36793</v>
       </c>
       <c r="Y36" s="13">
-        <v>36793</v>
+        <v>28925</v>
       </c>
       <c r="Z36" s="13">
-        <v>28925</v>
+        <v>28516</v>
       </c>
       <c r="AA36" s="13">
-        <v>28516</v>
+        <v>26989</v>
       </c>
       <c r="AB36" s="13">
-        <v>26989</v>
+        <v>39907</v>
       </c>
       <c r="AC36" s="13">
-        <v>39907</v>
+        <v>34252</v>
       </c>
       <c r="AD36" s="13">
-        <v>34252</v>
+        <v>27083</v>
       </c>
       <c r="AE36" s="13">
-        <v>27083</v>
+        <v>21979</v>
       </c>
       <c r="AF36" s="13">
-        <v>21979</v>
+        <v>34116</v>
       </c>
       <c r="AG36" s="13">
-        <v>34116</v>
+        <v>29791</v>
       </c>
       <c r="AH36" s="13">
-        <v>29791</v>
+        <v>18142</v>
       </c>
       <c r="AI36" s="13">
-        <v>18142</v>
+        <v>23339</v>
       </c>
       <c r="AJ36" s="13">
-        <v>23339</v>
+        <v>22766</v>
       </c>
       <c r="AK36" s="13">
-        <v>22766</v>
+        <v>39808</v>
       </c>
       <c r="AL36" s="13">
-        <v>39808</v>
+        <v>19865</v>
       </c>
       <c r="AM36" s="13">
-        <v>19865</v>
+        <v>38200</v>
       </c>
       <c r="AN36" s="13">
-        <v>38200</v>
+        <v>39497</v>
       </c>
       <c r="AO36" s="13">
-        <v>39497</v>
+        <v>25647</v>
       </c>
       <c r="AP36" s="13">
-        <v>25647</v>
+        <v>32648</v>
       </c>
       <c r="AQ36" s="13">
-        <v>32648</v>
+        <v>18208</v>
       </c>
       <c r="AR36" s="13">
-        <v>18208</v>
+        <v>36397</v>
       </c>
       <c r="AS36" s="13">
-        <v>36397</v>
+        <v>16057</v>
       </c>
       <c r="AT36" s="13">
-        <v>16057</v>
+        <v>35152</v>
       </c>
       <c r="AU36" s="13">
-        <v>35152</v>
+        <v>31306</v>
       </c>
       <c r="AV36" s="13">
-        <v>31306</v>
+        <v>28621</v>
       </c>
       <c r="AW36" s="13">
-        <v>28621</v>
+        <v>39438</v>
       </c>
       <c r="AX36" s="13">
-        <v>39438</v>
+        <v>23894</v>
       </c>
       <c r="AY36" s="13">
-        <v>23894</v>
+        <v>46063</v>
       </c>
       <c r="AZ36" s="13">
-        <v>46063</v>
+        <v>40881</v>
       </c>
       <c r="BA36" s="13">
-        <v>40881</v>
+        <v>24800</v>
       </c>
       <c r="BB36" s="13">
-        <v>24800</v>
+        <v>21080</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.25">
@@ -4896,154 +4896,154 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>2756</v>
+        <v>12100</v>
       </c>
       <c r="F37" s="11">
-        <v>12100</v>
+        <v>5107</v>
       </c>
       <c r="G37" s="11">
-        <v>5107</v>
+        <v>7863</v>
       </c>
       <c r="H37" s="11">
-        <v>7863</v>
+        <v>5134</v>
       </c>
       <c r="I37" s="11">
-        <v>5134</v>
+        <v>7914</v>
       </c>
       <c r="J37" s="11">
-        <v>7914</v>
+        <v>563</v>
       </c>
       <c r="K37" s="11">
-        <v>563</v>
+        <v>4410</v>
       </c>
       <c r="L37" s="11">
-        <v>4410</v>
+        <v>7103</v>
       </c>
       <c r="M37" s="11">
-        <v>7103</v>
+        <v>4758</v>
       </c>
       <c r="N37" s="11">
-        <v>4758</v>
+        <v>7575</v>
       </c>
       <c r="O37" s="11">
-        <v>7575</v>
+        <v>9494</v>
       </c>
       <c r="P37" s="11">
-        <v>9494</v>
+        <v>1226</v>
       </c>
       <c r="Q37" s="11">
-        <v>1226</v>
+        <v>10096</v>
       </c>
       <c r="R37" s="11">
-        <v>10096</v>
+        <v>6076</v>
       </c>
       <c r="S37" s="11">
-        <v>6076</v>
+        <v>4351</v>
       </c>
       <c r="T37" s="11">
-        <v>4351</v>
+        <v>4417</v>
       </c>
       <c r="U37" s="11">
-        <v>4417</v>
+        <v>1026</v>
       </c>
       <c r="V37" s="11">
-        <v>1026</v>
+        <v>10186</v>
       </c>
       <c r="W37" s="11">
-        <v>10186</v>
+        <v>8333</v>
       </c>
       <c r="X37" s="11">
-        <v>8333</v>
+        <v>5612</v>
       </c>
       <c r="Y37" s="11">
-        <v>5612</v>
+        <v>9208</v>
       </c>
       <c r="Z37" s="11">
-        <v>9208</v>
+        <v>6761</v>
       </c>
       <c r="AA37" s="11">
-        <v>6761</v>
+        <v>7588</v>
       </c>
       <c r="AB37" s="11">
-        <v>7588</v>
+        <v>6933</v>
       </c>
       <c r="AC37" s="11">
-        <v>6933</v>
+        <v>38873</v>
       </c>
       <c r="AD37" s="11">
-        <v>38873</v>
+        <v>14365</v>
       </c>
       <c r="AE37" s="11">
-        <v>14365</v>
+        <v>2354</v>
       </c>
       <c r="AF37" s="11">
-        <v>2354</v>
+        <v>1909</v>
       </c>
       <c r="AG37" s="11">
-        <v>1909</v>
+        <v>9894</v>
       </c>
       <c r="AH37" s="11">
-        <v>9894</v>
+        <v>11348</v>
       </c>
       <c r="AI37" s="11">
-        <v>11348</v>
+        <v>6266</v>
       </c>
       <c r="AJ37" s="11">
-        <v>6266</v>
+        <v>2534</v>
       </c>
       <c r="AK37" s="11">
-        <v>2534</v>
+        <v>11957</v>
       </c>
       <c r="AL37" s="11">
-        <v>11957</v>
+        <v>6661</v>
       </c>
       <c r="AM37" s="11">
-        <v>6661</v>
+        <v>529</v>
       </c>
       <c r="AN37" s="11">
-        <v>529</v>
+        <v>240</v>
       </c>
       <c r="AO37" s="11">
-        <v>240</v>
+        <v>4825</v>
       </c>
       <c r="AP37" s="11">
-        <v>4825</v>
+        <v>4671</v>
       </c>
       <c r="AQ37" s="11">
-        <v>4671</v>
+        <v>5226</v>
       </c>
       <c r="AR37" s="11">
-        <v>5226</v>
+        <v>10711</v>
       </c>
       <c r="AS37" s="11">
-        <v>10711</v>
+        <v>7118</v>
       </c>
       <c r="AT37" s="11">
-        <v>7118</v>
+        <v>2576</v>
       </c>
       <c r="AU37" s="11">
-        <v>2576</v>
+        <v>10189</v>
       </c>
       <c r="AV37" s="11">
-        <v>10189</v>
+        <v>7168</v>
       </c>
       <c r="AW37" s="11">
-        <v>7168</v>
+        <v>1831</v>
       </c>
       <c r="AX37" s="11">
-        <v>1831</v>
+        <v>844</v>
       </c>
       <c r="AY37" s="11">
-        <v>844</v>
+        <v>6735</v>
       </c>
       <c r="AZ37" s="11">
-        <v>6735</v>
+        <v>14705</v>
       </c>
       <c r="BA37" s="11">
-        <v>14705</v>
+        <v>11684</v>
       </c>
       <c r="BB37" s="11">
-        <v>11684</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.25">
@@ -5157,8 +5157,8 @@
       <c r="T39" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="U39" s="17" t="s">
-        <v>67</v>
+      <c r="U39" s="17">
+        <v>0</v>
       </c>
       <c r="V39" s="17">
         <v>0</v>
@@ -5371,8 +5371,8 @@
       <c r="T41" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="U41" s="17" t="s">
-        <v>67</v>
+      <c r="U41" s="17">
+        <v>0</v>
       </c>
       <c r="V41" s="17">
         <v>0</v>
@@ -5481,154 +5481,154 @@
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19">
-        <v>127738</v>
+        <v>106006</v>
       </c>
       <c r="F42" s="19">
-        <v>106006</v>
+        <v>161247</v>
       </c>
       <c r="G42" s="19">
-        <v>161247</v>
+        <v>133155</v>
       </c>
       <c r="H42" s="19">
-        <v>133155</v>
+        <v>140359</v>
       </c>
       <c r="I42" s="19">
-        <v>140359</v>
+        <v>160621</v>
       </c>
       <c r="J42" s="19">
-        <v>160621</v>
+        <v>166946</v>
       </c>
       <c r="K42" s="19">
-        <v>166946</v>
+        <v>135399</v>
       </c>
       <c r="L42" s="19">
-        <v>135399</v>
+        <v>147947</v>
       </c>
       <c r="M42" s="19">
-        <v>147947</v>
+        <v>144344</v>
       </c>
       <c r="N42" s="19">
-        <v>144344</v>
+        <v>136545</v>
       </c>
       <c r="O42" s="19">
-        <v>136545</v>
+        <v>143531</v>
       </c>
       <c r="P42" s="19">
-        <v>143531</v>
+        <v>136221</v>
       </c>
       <c r="Q42" s="19">
-        <v>136221</v>
+        <v>143597</v>
       </c>
       <c r="R42" s="19">
-        <v>143597</v>
+        <v>146723</v>
       </c>
       <c r="S42" s="19">
-        <v>146723</v>
+        <v>119141</v>
       </c>
       <c r="T42" s="19">
-        <v>119141</v>
+        <v>148638</v>
       </c>
       <c r="U42" s="19">
-        <v>148638</v>
+        <v>163444</v>
       </c>
       <c r="V42" s="19">
-        <v>163444</v>
+        <v>155592</v>
       </c>
       <c r="W42" s="19">
-        <v>155592</v>
+        <v>173682</v>
       </c>
       <c r="X42" s="19">
-        <v>173682</v>
+        <v>155033</v>
       </c>
       <c r="Y42" s="19">
-        <v>155033</v>
+        <v>158519</v>
       </c>
       <c r="Z42" s="19">
-        <v>158519</v>
+        <v>168866</v>
       </c>
       <c r="AA42" s="19">
-        <v>168866</v>
+        <v>166465</v>
       </c>
       <c r="AB42" s="19">
-        <v>166465</v>
+        <v>172114</v>
       </c>
       <c r="AC42" s="19">
-        <v>172114</v>
+        <v>233527</v>
       </c>
       <c r="AD42" s="19">
-        <v>233527</v>
+        <v>166035</v>
       </c>
       <c r="AE42" s="19">
-        <v>166035</v>
+        <v>158352</v>
       </c>
       <c r="AF42" s="19">
-        <v>158352</v>
+        <v>178669</v>
       </c>
       <c r="AG42" s="19">
-        <v>178669</v>
+        <v>157723</v>
       </c>
       <c r="AH42" s="19">
-        <v>157723</v>
+        <v>127196</v>
       </c>
       <c r="AI42" s="19">
-        <v>127196</v>
+        <v>108595</v>
       </c>
       <c r="AJ42" s="19">
-        <v>108595</v>
+        <v>143448</v>
       </c>
       <c r="AK42" s="19">
-        <v>143448</v>
+        <v>167084</v>
       </c>
       <c r="AL42" s="19">
-        <v>167084</v>
+        <v>106345</v>
       </c>
       <c r="AM42" s="19">
-        <v>106345</v>
+        <v>155684</v>
       </c>
       <c r="AN42" s="19">
-        <v>155684</v>
+        <v>153239</v>
       </c>
       <c r="AO42" s="19">
-        <v>153239</v>
+        <v>125323</v>
       </c>
       <c r="AP42" s="19">
-        <v>125323</v>
+        <v>137224</v>
       </c>
       <c r="AQ42" s="19">
-        <v>137224</v>
+        <v>119830</v>
       </c>
       <c r="AR42" s="19">
-        <v>119830</v>
+        <v>147639</v>
       </c>
       <c r="AS42" s="19">
-        <v>147639</v>
+        <v>117326</v>
       </c>
       <c r="AT42" s="19">
-        <v>117326</v>
+        <v>137232</v>
       </c>
       <c r="AU42" s="19">
-        <v>137232</v>
+        <v>141455</v>
       </c>
       <c r="AV42" s="19">
-        <v>141455</v>
+        <v>144074</v>
       </c>
       <c r="AW42" s="19">
-        <v>144074</v>
+        <v>130551</v>
       </c>
       <c r="AX42" s="19">
-        <v>130551</v>
+        <v>133302</v>
       </c>
       <c r="AY42" s="19">
-        <v>133302</v>
+        <v>166632</v>
       </c>
       <c r="AZ42" s="19">
-        <v>166632</v>
+        <v>157047</v>
       </c>
       <c r="BA42" s="19">
-        <v>157047</v>
+        <v>134099</v>
       </c>
       <c r="BB42" s="19">
-        <v>134099</v>
+        <v>126114</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.25">
@@ -6074,154 +6074,154 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>1474</v>
+        <v>1218</v>
       </c>
       <c r="F49" s="11">
-        <v>1218</v>
+        <v>1071</v>
       </c>
       <c r="G49" s="11">
-        <v>1071</v>
+        <v>470</v>
       </c>
       <c r="H49" s="11">
-        <v>470</v>
+        <v>646</v>
       </c>
       <c r="I49" s="11">
-        <v>646</v>
+        <v>1575</v>
       </c>
       <c r="J49" s="11">
-        <v>1575</v>
+        <v>3909</v>
       </c>
       <c r="K49" s="11">
-        <v>3909</v>
+        <v>4323</v>
       </c>
       <c r="L49" s="11">
-        <v>4323</v>
+        <v>1633</v>
       </c>
       <c r="M49" s="11">
-        <v>1633</v>
+        <v>1544</v>
       </c>
       <c r="N49" s="11">
-        <v>1544</v>
+        <v>78471</v>
       </c>
       <c r="O49" s="11">
-        <v>78471</v>
+        <v>167562</v>
       </c>
       <c r="P49" s="11">
-        <v>167562</v>
+        <v>136004</v>
       </c>
       <c r="Q49" s="11">
-        <v>136004</v>
+        <v>51240</v>
       </c>
       <c r="R49" s="11">
-        <v>51240</v>
+        <v>160717</v>
       </c>
       <c r="S49" s="11">
-        <v>160717</v>
+        <v>89152</v>
       </c>
       <c r="T49" s="11">
-        <v>89152</v>
+        <v>61337</v>
       </c>
       <c r="U49" s="11">
-        <v>61337</v>
+        <v>98223</v>
       </c>
       <c r="V49" s="11">
-        <v>98223</v>
+        <v>230558</v>
       </c>
       <c r="W49" s="11">
         <v>230558</v>
       </c>
       <c r="X49" s="11">
-        <v>230558</v>
+        <v>313798</v>
       </c>
       <c r="Y49" s="11">
-        <v>313798</v>
+        <v>77812</v>
       </c>
       <c r="Z49" s="11">
-        <v>77812</v>
+        <v>172203</v>
       </c>
       <c r="AA49" s="11">
-        <v>172203</v>
+        <v>305591</v>
       </c>
       <c r="AB49" s="11">
-        <v>305591</v>
+        <v>490513</v>
       </c>
       <c r="AC49" s="11">
-        <v>490513</v>
+        <v>1039597</v>
       </c>
       <c r="AD49" s="11">
-        <v>1039597</v>
+        <v>474682</v>
       </c>
       <c r="AE49" s="11">
-        <v>474682</v>
+        <v>626940</v>
       </c>
       <c r="AF49" s="11">
-        <v>626940</v>
+        <v>317866</v>
       </c>
       <c r="AG49" s="11">
-        <v>317866</v>
+        <v>310777</v>
       </c>
       <c r="AH49" s="11">
-        <v>310777</v>
+        <v>336745</v>
       </c>
       <c r="AI49" s="11">
-        <v>336745</v>
+        <v>207396</v>
       </c>
       <c r="AJ49" s="11">
-        <v>207396</v>
+        <v>440799</v>
       </c>
       <c r="AK49" s="11">
-        <v>440799</v>
+        <v>520465</v>
       </c>
       <c r="AL49" s="11">
-        <v>520465</v>
+        <v>109391</v>
       </c>
       <c r="AM49" s="11">
-        <v>109391</v>
+        <v>345</v>
       </c>
       <c r="AN49" s="11">
-        <v>345</v>
+        <v>214341</v>
       </c>
       <c r="AO49" s="11">
-        <v>214341</v>
+        <v>568586</v>
       </c>
       <c r="AP49" s="11">
-        <v>568586</v>
+        <v>547386</v>
       </c>
       <c r="AQ49" s="11">
-        <v>547386</v>
+        <v>93859</v>
       </c>
       <c r="AR49" s="11">
-        <v>93859</v>
+        <v>224787</v>
       </c>
       <c r="AS49" s="11">
-        <v>224787</v>
+        <v>368204</v>
       </c>
       <c r="AT49" s="11">
-        <v>368204</v>
+        <v>42798</v>
       </c>
       <c r="AU49" s="11">
-        <v>42798</v>
+        <v>249782</v>
       </c>
       <c r="AV49" s="11">
-        <v>249782</v>
+        <v>128895</v>
       </c>
       <c r="AW49" s="11">
-        <v>128895</v>
+        <v>962</v>
       </c>
       <c r="AX49" s="11">
-        <v>962</v>
+        <v>253742</v>
       </c>
       <c r="AY49" s="11">
-        <v>253742</v>
+        <v>79075</v>
       </c>
       <c r="AZ49" s="11">
-        <v>79075</v>
+        <v>97226</v>
       </c>
       <c r="BA49" s="11">
-        <v>97226</v>
+        <v>184346</v>
       </c>
       <c r="BB49" s="11">
-        <v>184346</v>
+        <v>371892</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.25">
@@ -6233,154 +6233,154 @@
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>1042924</v>
+        <v>770832</v>
       </c>
       <c r="F50" s="13">
-        <v>770832</v>
+        <v>1179951</v>
       </c>
       <c r="G50" s="13">
-        <v>1179951</v>
+        <v>979135</v>
       </c>
       <c r="H50" s="13">
-        <v>979135</v>
+        <v>932793</v>
       </c>
       <c r="I50" s="13">
-        <v>932793</v>
+        <v>1166808</v>
       </c>
       <c r="J50" s="13">
-        <v>1166808</v>
+        <v>1333852</v>
       </c>
       <c r="K50" s="13">
-        <v>1333852</v>
+        <v>926890</v>
       </c>
       <c r="L50" s="13">
-        <v>926890</v>
+        <v>1215757</v>
       </c>
       <c r="M50" s="13">
-        <v>1215757</v>
+        <v>1223221</v>
       </c>
       <c r="N50" s="13">
-        <v>1223221</v>
+        <v>960720</v>
       </c>
       <c r="O50" s="13">
-        <v>960720</v>
+        <v>1081096</v>
       </c>
       <c r="P50" s="13">
-        <v>1081096</v>
+        <v>1131596</v>
       </c>
       <c r="Q50" s="13">
-        <v>1131596</v>
+        <v>1132757</v>
       </c>
       <c r="R50" s="13">
-        <v>1132757</v>
+        <v>1251861</v>
       </c>
       <c r="S50" s="13">
-        <v>1251861</v>
+        <v>654667</v>
       </c>
       <c r="T50" s="13">
-        <v>654667</v>
+        <v>456956</v>
       </c>
       <c r="U50" s="13">
-        <v>456956</v>
+        <v>745531</v>
       </c>
       <c r="V50" s="13">
-        <v>745531</v>
+        <v>1638879</v>
       </c>
       <c r="W50" s="13">
-        <v>1638879</v>
+        <v>1411024</v>
       </c>
       <c r="X50" s="13">
-        <v>1411024</v>
+        <v>1597116</v>
       </c>
       <c r="Y50" s="13">
-        <v>1597116</v>
+        <v>2157179</v>
       </c>
       <c r="Z50" s="13">
-        <v>2157179</v>
+        <v>2050129</v>
       </c>
       <c r="AA50" s="13">
-        <v>2050129</v>
+        <v>2430004</v>
       </c>
       <c r="AB50" s="13">
-        <v>2430004</v>
+        <v>2871182</v>
       </c>
       <c r="AC50" s="13">
-        <v>2871182</v>
+        <v>2972380</v>
       </c>
       <c r="AD50" s="13">
-        <v>2972380</v>
+        <v>3415019</v>
       </c>
       <c r="AE50" s="13">
-        <v>3415019</v>
+        <v>3117997</v>
       </c>
       <c r="AF50" s="13">
-        <v>3117997</v>
+        <v>2500576</v>
       </c>
       <c r="AG50" s="13">
-        <v>2500576</v>
+        <v>2602805</v>
       </c>
       <c r="AH50" s="13">
-        <v>2602805</v>
+        <v>2456239</v>
       </c>
       <c r="AI50" s="13">
-        <v>2456239</v>
+        <v>1980902</v>
       </c>
       <c r="AJ50" s="13">
-        <v>1980902</v>
+        <v>3513431</v>
       </c>
       <c r="AK50" s="13">
-        <v>3513431</v>
+        <v>3934530</v>
       </c>
       <c r="AL50" s="13">
-        <v>3934530</v>
+        <v>2095283</v>
       </c>
       <c r="AM50" s="13">
-        <v>2095283</v>
+        <v>3106396</v>
       </c>
       <c r="AN50" s="13">
-        <v>3106396</v>
+        <v>4524545</v>
       </c>
       <c r="AO50" s="13">
-        <v>4524545</v>
+        <v>4628362</v>
       </c>
       <c r="AP50" s="13">
-        <v>4628362</v>
+        <v>4119152</v>
       </c>
       <c r="AQ50" s="13">
-        <v>4119152</v>
+        <v>3768142</v>
       </c>
       <c r="AR50" s="13">
-        <v>3768142</v>
+        <v>4182090</v>
       </c>
       <c r="AS50" s="13">
-        <v>4182090</v>
+        <v>3748163</v>
       </c>
       <c r="AT50" s="13">
-        <v>3748163</v>
+        <v>3307510</v>
       </c>
       <c r="AU50" s="13">
-        <v>3307510</v>
+        <v>3278181</v>
       </c>
       <c r="AV50" s="13">
-        <v>3278181</v>
+        <v>3606401</v>
       </c>
       <c r="AW50" s="13">
-        <v>3606401</v>
+        <v>2724095</v>
       </c>
       <c r="AX50" s="13">
-        <v>2724095</v>
+        <v>3202212</v>
       </c>
       <c r="AY50" s="13">
-        <v>3202212</v>
+        <v>3723383</v>
       </c>
       <c r="AZ50" s="13">
-        <v>3723383</v>
+        <v>4066788</v>
       </c>
       <c r="BA50" s="13">
-        <v>4066788</v>
+        <v>4567738</v>
       </c>
       <c r="BB50" s="13">
-        <v>4567738</v>
+        <v>4312662</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.25">
@@ -6392,154 +6392,154 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>2313852</v>
+        <v>2690368</v>
       </c>
       <c r="F51" s="11">
-        <v>2690368</v>
+        <v>3419337</v>
       </c>
       <c r="G51" s="11">
-        <v>3419337</v>
+        <v>3605896</v>
       </c>
       <c r="H51" s="11">
-        <v>3605896</v>
+        <v>4126936</v>
       </c>
       <c r="I51" s="11">
-        <v>4126936</v>
+        <v>5876303</v>
       </c>
       <c r="J51" s="11">
-        <v>5876303</v>
+        <v>3134656</v>
       </c>
       <c r="K51" s="11">
-        <v>3134656</v>
+        <v>1905012</v>
       </c>
       <c r="L51" s="11">
-        <v>1905012</v>
+        <v>1968799</v>
       </c>
       <c r="M51" s="11">
-        <v>1968799</v>
+        <v>2103802</v>
       </c>
       <c r="N51" s="11">
-        <v>2103802</v>
+        <v>2134657</v>
       </c>
       <c r="O51" s="11">
-        <v>2134657</v>
+        <v>2110698</v>
       </c>
       <c r="P51" s="11">
-        <v>2110698</v>
+        <v>2038638</v>
       </c>
       <c r="Q51" s="11">
-        <v>2038638</v>
+        <v>2838585</v>
       </c>
       <c r="R51" s="11">
-        <v>2838585</v>
+        <v>2006188</v>
       </c>
       <c r="S51" s="11">
-        <v>2006188</v>
+        <v>2819345</v>
       </c>
       <c r="T51" s="11">
-        <v>2819345</v>
+        <v>1785144</v>
       </c>
       <c r="U51" s="11">
-        <v>1785144</v>
+        <v>2188015</v>
       </c>
       <c r="V51" s="11">
-        <v>2188015</v>
+        <v>2002467</v>
       </c>
       <c r="W51" s="11">
-        <v>2002467</v>
+        <v>4820227</v>
       </c>
       <c r="X51" s="11">
-        <v>4820227</v>
+        <v>3797028</v>
       </c>
       <c r="Y51" s="11">
-        <v>3797028</v>
+        <v>6222020</v>
       </c>
       <c r="Z51" s="11">
-        <v>6222020</v>
+        <v>6270909</v>
       </c>
       <c r="AA51" s="11">
-        <v>6270909</v>
+        <v>5667413</v>
       </c>
       <c r="AB51" s="11">
-        <v>5667413</v>
+        <v>7434739</v>
       </c>
       <c r="AC51" s="11">
-        <v>7434739</v>
+        <v>10247153</v>
       </c>
       <c r="AD51" s="11">
-        <v>10247153</v>
+        <v>5653375</v>
       </c>
       <c r="AE51" s="11">
-        <v>5653375</v>
+        <v>5966228</v>
       </c>
       <c r="AF51" s="11">
-        <v>5966228</v>
+        <v>5718104</v>
       </c>
       <c r="AG51" s="11">
-        <v>5718104</v>
+        <v>7506250</v>
       </c>
       <c r="AH51" s="11">
-        <v>7506250</v>
+        <v>4231593</v>
       </c>
       <c r="AI51" s="11">
-        <v>4231593</v>
+        <v>7476551</v>
       </c>
       <c r="AJ51" s="11">
-        <v>7476551</v>
+        <v>6506547</v>
       </c>
       <c r="AK51" s="11">
-        <v>6506547</v>
+        <v>6854011</v>
       </c>
       <c r="AL51" s="11">
-        <v>6854011</v>
+        <v>4523033</v>
       </c>
       <c r="AM51" s="11">
-        <v>4523033</v>
+        <v>11161883</v>
       </c>
       <c r="AN51" s="11">
-        <v>11161883</v>
+        <v>8482160</v>
       </c>
       <c r="AO51" s="11">
-        <v>8482160</v>
+        <v>9614563</v>
       </c>
       <c r="AP51" s="11">
-        <v>9614563</v>
+        <v>9739750</v>
       </c>
       <c r="AQ51" s="11">
-        <v>9739750</v>
+        <v>10614429</v>
       </c>
       <c r="AR51" s="11">
-        <v>10614429</v>
+        <v>8226559</v>
       </c>
       <c r="AS51" s="11">
-        <v>8226559</v>
+        <v>8864492</v>
       </c>
       <c r="AT51" s="11">
-        <v>8864492</v>
+        <v>10187227</v>
       </c>
       <c r="AU51" s="11">
-        <v>10187227</v>
+        <v>9435827</v>
       </c>
       <c r="AV51" s="11">
-        <v>9435827</v>
+        <v>10568793</v>
       </c>
       <c r="AW51" s="11">
-        <v>10568793</v>
+        <v>11182273</v>
       </c>
       <c r="AX51" s="11">
-        <v>11182273</v>
+        <v>9559772</v>
       </c>
       <c r="AY51" s="11">
-        <v>9559772</v>
+        <v>9786177</v>
       </c>
       <c r="AZ51" s="11">
-        <v>9786177</v>
+        <v>9197778</v>
       </c>
       <c r="BA51" s="11">
-        <v>9197778</v>
+        <v>9410426</v>
       </c>
       <c r="BB51" s="11">
-        <v>9410426</v>
+        <v>6173761</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.25">
@@ -6551,154 +6551,154 @@
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
-        <v>1101855</v>
+        <v>1039435</v>
       </c>
       <c r="F52" s="13">
-        <v>1039435</v>
+        <v>1286230</v>
       </c>
       <c r="G52" s="13">
-        <v>1286230</v>
+        <v>1098088</v>
       </c>
       <c r="H52" s="13">
-        <v>1098088</v>
+        <v>1180939</v>
       </c>
       <c r="I52" s="13">
-        <v>1180939</v>
+        <v>1336851</v>
       </c>
       <c r="J52" s="13">
-        <v>1336851</v>
+        <v>2083081</v>
       </c>
       <c r="K52" s="13">
-        <v>2083081</v>
+        <v>1407532</v>
       </c>
       <c r="L52" s="13">
-        <v>1407532</v>
+        <v>1712099</v>
       </c>
       <c r="M52" s="13">
-        <v>1712099</v>
+        <v>1786439</v>
       </c>
       <c r="N52" s="13">
-        <v>1786439</v>
+        <v>1363171</v>
       </c>
       <c r="O52" s="13">
-        <v>1363171</v>
+        <v>1466268</v>
       </c>
       <c r="P52" s="13">
-        <v>1466268</v>
+        <v>1456845</v>
       </c>
       <c r="Q52" s="13">
-        <v>1456845</v>
+        <v>1471985</v>
       </c>
       <c r="R52" s="13">
-        <v>1471985</v>
+        <v>1606932</v>
       </c>
       <c r="S52" s="13">
-        <v>1606932</v>
+        <v>953334</v>
       </c>
       <c r="T52" s="13">
-        <v>953334</v>
+        <v>1873692</v>
       </c>
       <c r="U52" s="13">
-        <v>1873692</v>
+        <v>1801969</v>
       </c>
       <c r="V52" s="13">
-        <v>1801969</v>
+        <v>2129488</v>
       </c>
       <c r="W52" s="13">
-        <v>2129488</v>
+        <v>2111514</v>
       </c>
       <c r="X52" s="13">
-        <v>2111514</v>
+        <v>2404590</v>
       </c>
       <c r="Y52" s="13">
-        <v>2404590</v>
+        <v>3582332</v>
       </c>
       <c r="Z52" s="13">
-        <v>3582332</v>
+        <v>3898726</v>
       </c>
       <c r="AA52" s="13">
-        <v>3898726</v>
+        <v>4265779</v>
       </c>
       <c r="AB52" s="13">
-        <v>4265779</v>
+        <v>4423847</v>
       </c>
       <c r="AC52" s="13">
-        <v>4423847</v>
+        <v>4246099</v>
       </c>
       <c r="AD52" s="13">
-        <v>4246099</v>
+        <v>5035642</v>
       </c>
       <c r="AE52" s="13">
-        <v>5035642</v>
+        <v>5223592</v>
       </c>
       <c r="AF52" s="13">
-        <v>5223592</v>
+        <v>4658885</v>
       </c>
       <c r="AG52" s="13">
-        <v>4658885</v>
+        <v>3174405</v>
       </c>
       <c r="AH52" s="13">
-        <v>3174405</v>
+        <v>3000666</v>
       </c>
       <c r="AI52" s="13">
-        <v>3000666</v>
+        <v>2371252</v>
       </c>
       <c r="AJ52" s="13">
-        <v>2371252</v>
+        <v>4039297</v>
       </c>
       <c r="AK52" s="13">
-        <v>4039297</v>
+        <v>3682065</v>
       </c>
       <c r="AL52" s="13">
-        <v>3682065</v>
+        <v>3173271</v>
       </c>
       <c r="AM52" s="13">
-        <v>3173271</v>
+        <v>2048113</v>
       </c>
       <c r="AN52" s="13">
-        <v>2048113</v>
+        <v>4461020</v>
       </c>
       <c r="AO52" s="13">
-        <v>4461020</v>
+        <v>3993462</v>
       </c>
       <c r="AP52" s="13">
-        <v>3993462</v>
+        <v>4699603</v>
       </c>
       <c r="AQ52" s="13">
-        <v>4699603</v>
+        <v>3715455</v>
       </c>
       <c r="AR52" s="13">
-        <v>3715455</v>
+        <v>3222722</v>
       </c>
       <c r="AS52" s="13">
-        <v>3222722</v>
+        <v>3004731</v>
       </c>
       <c r="AT52" s="13">
-        <v>3004731</v>
+        <v>2310784</v>
       </c>
       <c r="AU52" s="13">
-        <v>2310784</v>
+        <v>3296593</v>
       </c>
       <c r="AV52" s="13">
-        <v>3296593</v>
+        <v>2933930</v>
       </c>
       <c r="AW52" s="13">
-        <v>2933930</v>
+        <v>1910777</v>
       </c>
       <c r="AX52" s="13">
-        <v>1910777</v>
+        <v>3584718</v>
       </c>
       <c r="AY52" s="13">
-        <v>3584718</v>
+        <v>3646591</v>
       </c>
       <c r="AZ52" s="13">
-        <v>3646591</v>
+        <v>3667870</v>
       </c>
       <c r="BA52" s="13">
-        <v>3667870</v>
+        <v>3799867</v>
       </c>
       <c r="BB52" s="13">
-        <v>3799867</v>
+        <v>3608092</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.25">
@@ -6710,154 +6710,154 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>2802294</v>
+        <v>1052539</v>
       </c>
       <c r="F53" s="11">
-        <v>1052539</v>
+        <v>3293615</v>
       </c>
       <c r="G53" s="11">
-        <v>3293615</v>
+        <v>2520089</v>
       </c>
       <c r="H53" s="11">
-        <v>2520089</v>
+        <v>3640878</v>
       </c>
       <c r="I53" s="11">
-        <v>3640878</v>
+        <v>3112501</v>
       </c>
       <c r="J53" s="11">
-        <v>3112501</v>
+        <v>3035630</v>
       </c>
       <c r="K53" s="11">
-        <v>3035630</v>
+        <v>3660379</v>
       </c>
       <c r="L53" s="11">
-        <v>3660379</v>
+        <v>3381596</v>
       </c>
       <c r="M53" s="11">
-        <v>3381596</v>
+        <v>2959048</v>
       </c>
       <c r="N53" s="11">
-        <v>2959048</v>
+        <v>2330116</v>
       </c>
       <c r="O53" s="11">
-        <v>2330116</v>
+        <v>2547877</v>
       </c>
       <c r="P53" s="11">
-        <v>2547877</v>
+        <v>2576051</v>
       </c>
       <c r="Q53" s="11">
-        <v>2576051</v>
+        <v>2377801</v>
       </c>
       <c r="R53" s="11">
-        <v>2377801</v>
+        <v>2411834</v>
       </c>
       <c r="S53" s="11">
-        <v>2411834</v>
+        <v>1058703</v>
       </c>
       <c r="T53" s="11">
-        <v>1058703</v>
+        <v>2196460</v>
       </c>
       <c r="U53" s="11">
-        <v>2196460</v>
+        <v>2887155</v>
       </c>
       <c r="V53" s="11">
-        <v>2887155</v>
+        <v>4681717</v>
       </c>
       <c r="W53" s="11">
-        <v>4681717</v>
+        <v>4192986</v>
       </c>
       <c r="X53" s="11">
-        <v>4192986</v>
+        <v>3071158</v>
       </c>
       <c r="Y53" s="11">
-        <v>3071158</v>
+        <v>5325532</v>
       </c>
       <c r="Z53" s="11">
-        <v>5325532</v>
+        <v>6355576</v>
       </c>
       <c r="AA53" s="11">
-        <v>6355576</v>
+        <v>7954423</v>
       </c>
       <c r="AB53" s="11">
-        <v>7954423</v>
+        <v>6810322</v>
       </c>
       <c r="AC53" s="11">
-        <v>6810322</v>
+        <v>9759655</v>
       </c>
       <c r="AD53" s="11">
-        <v>9759655</v>
+        <v>7639614</v>
       </c>
       <c r="AE53" s="11">
-        <v>7639614</v>
+        <v>9688525</v>
       </c>
       <c r="AF53" s="11">
-        <v>9688525</v>
+        <v>11216738</v>
       </c>
       <c r="AG53" s="11">
-        <v>11216738</v>
+        <v>5786583</v>
       </c>
       <c r="AH53" s="11">
-        <v>5786583</v>
+        <v>5324752</v>
       </c>
       <c r="AI53" s="11">
-        <v>5324752</v>
+        <v>2662484</v>
       </c>
       <c r="AJ53" s="11">
-        <v>2662484</v>
+        <v>6980173</v>
       </c>
       <c r="AK53" s="11">
-        <v>6980173</v>
+        <v>8042865</v>
       </c>
       <c r="AL53" s="11">
-        <v>8042865</v>
+        <v>5575520</v>
       </c>
       <c r="AM53" s="11">
-        <v>5575520</v>
+        <v>8732184</v>
       </c>
       <c r="AN53" s="11">
-        <v>8732184</v>
+        <v>6954717</v>
       </c>
       <c r="AO53" s="11">
-        <v>6954717</v>
+        <v>5302282</v>
       </c>
       <c r="AP53" s="11">
-        <v>5302282</v>
+        <v>6845792</v>
       </c>
       <c r="AQ53" s="11">
-        <v>6845792</v>
+        <v>6305389</v>
       </c>
       <c r="AR53" s="11">
-        <v>6305389</v>
+        <v>7488514</v>
       </c>
       <c r="AS53" s="11">
-        <v>7488514</v>
+        <v>6052012</v>
       </c>
       <c r="AT53" s="11">
-        <v>6052012</v>
+        <v>6109654</v>
       </c>
       <c r="AU53" s="11">
-        <v>6109654</v>
+        <v>5937081</v>
       </c>
       <c r="AV53" s="11">
-        <v>5937081</v>
+        <v>5211549</v>
       </c>
       <c r="AW53" s="11">
-        <v>5211549</v>
+        <v>4014110</v>
       </c>
       <c r="AX53" s="11">
-        <v>4014110</v>
+        <v>6070084</v>
       </c>
       <c r="AY53" s="11">
-        <v>6070084</v>
+        <v>6088941</v>
       </c>
       <c r="AZ53" s="11">
-        <v>6088941</v>
+        <v>5304486</v>
       </c>
       <c r="BA53" s="11">
-        <v>5304486</v>
+        <v>9052522</v>
       </c>
       <c r="BB53" s="11">
-        <v>9052522</v>
+        <v>7502969</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.25">
@@ -6869,154 +6869,154 @@
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13">
-        <v>57432</v>
+        <v>41179</v>
       </c>
       <c r="F54" s="13">
-        <v>41179</v>
+        <v>56941</v>
       </c>
       <c r="G54" s="13">
-        <v>56941</v>
+        <v>43801</v>
       </c>
       <c r="H54" s="13">
-        <v>43801</v>
+        <v>34889</v>
       </c>
       <c r="I54" s="13">
-        <v>34889</v>
+        <v>45889</v>
       </c>
       <c r="J54" s="13">
-        <v>45889</v>
+        <v>69093</v>
       </c>
       <c r="K54" s="13">
-        <v>69093</v>
+        <v>49111</v>
       </c>
       <c r="L54" s="13">
-        <v>49111</v>
+        <v>61812</v>
       </c>
       <c r="M54" s="13">
-        <v>61812</v>
+        <v>63538</v>
       </c>
       <c r="N54" s="13">
-        <v>63538</v>
+        <v>48386</v>
       </c>
       <c r="O54" s="13">
-        <v>48386</v>
+        <v>43619</v>
       </c>
       <c r="P54" s="13">
-        <v>43619</v>
+        <v>42582</v>
       </c>
       <c r="Q54" s="13">
-        <v>42582</v>
+        <v>35759</v>
       </c>
       <c r="R54" s="13">
-        <v>35759</v>
+        <v>59756</v>
       </c>
       <c r="S54" s="13">
-        <v>59756</v>
+        <v>41413</v>
       </c>
       <c r="T54" s="13">
-        <v>41413</v>
+        <v>58492</v>
       </c>
       <c r="U54" s="13">
-        <v>58492</v>
+        <v>52974</v>
       </c>
       <c r="V54" s="13">
-        <v>52974</v>
+        <v>82565</v>
       </c>
       <c r="W54" s="13">
-        <v>82565</v>
+        <v>79094</v>
       </c>
       <c r="X54" s="13">
-        <v>79094</v>
+        <v>77050</v>
       </c>
       <c r="Y54" s="13">
-        <v>77050</v>
+        <v>76385</v>
       </c>
       <c r="Z54" s="13">
-        <v>76385</v>
+        <v>71487</v>
       </c>
       <c r="AA54" s="13">
-        <v>71487</v>
+        <v>104674</v>
       </c>
       <c r="AB54" s="13">
-        <v>104674</v>
+        <v>122184</v>
       </c>
       <c r="AC54" s="13">
-        <v>122184</v>
+        <v>132649</v>
       </c>
       <c r="AD54" s="13">
-        <v>132649</v>
+        <v>135119</v>
       </c>
       <c r="AE54" s="13">
-        <v>135119</v>
+        <v>133053</v>
       </c>
       <c r="AF54" s="13">
-        <v>133053</v>
+        <v>119005</v>
       </c>
       <c r="AG54" s="13">
-        <v>119005</v>
+        <v>83798</v>
       </c>
       <c r="AH54" s="13">
-        <v>83798</v>
+        <v>81569</v>
       </c>
       <c r="AI54" s="13">
-        <v>81569</v>
+        <v>66893</v>
       </c>
       <c r="AJ54" s="13">
-        <v>66893</v>
+        <v>114996</v>
       </c>
       <c r="AK54" s="13">
-        <v>114996</v>
+        <v>173290</v>
       </c>
       <c r="AL54" s="13">
-        <v>173290</v>
+        <v>119592</v>
       </c>
       <c r="AM54" s="13">
-        <v>119592</v>
+        <v>86479</v>
       </c>
       <c r="AN54" s="13">
-        <v>86479</v>
+        <v>182406</v>
       </c>
       <c r="AO54" s="13">
-        <v>182406</v>
+        <v>163435</v>
       </c>
       <c r="AP54" s="13">
-        <v>163435</v>
+        <v>144439</v>
       </c>
       <c r="AQ54" s="13">
-        <v>144439</v>
+        <v>157069</v>
       </c>
       <c r="AR54" s="13">
-        <v>157069</v>
+        <v>201528</v>
       </c>
       <c r="AS54" s="13">
-        <v>201528</v>
+        <v>200982</v>
       </c>
       <c r="AT54" s="13">
-        <v>200982</v>
+        <v>213569</v>
       </c>
       <c r="AU54" s="13">
-        <v>213569</v>
+        <v>173156</v>
       </c>
       <c r="AV54" s="13">
-        <v>173156</v>
+        <v>182095</v>
       </c>
       <c r="AW54" s="13">
-        <v>182095</v>
+        <v>117194</v>
       </c>
       <c r="AX54" s="13">
-        <v>117194</v>
+        <v>141716</v>
       </c>
       <c r="AY54" s="13">
-        <v>141716</v>
+        <v>153117</v>
       </c>
       <c r="AZ54" s="13">
-        <v>153117</v>
+        <v>145346</v>
       </c>
       <c r="BA54" s="13">
-        <v>145346</v>
+        <v>149569</v>
       </c>
       <c r="BB54" s="13">
-        <v>149569</v>
+        <v>171396</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.25">
@@ -7028,154 +7028,154 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>41876</v>
+        <v>24351</v>
       </c>
       <c r="F55" s="11">
-        <v>24351</v>
+        <v>99724</v>
       </c>
       <c r="G55" s="11">
-        <v>99724</v>
+        <v>61306</v>
       </c>
       <c r="H55" s="11">
-        <v>61306</v>
+        <v>54594</v>
       </c>
       <c r="I55" s="11">
-        <v>54594</v>
+        <v>111255</v>
       </c>
       <c r="J55" s="11">
-        <v>111255</v>
+        <v>139268</v>
       </c>
       <c r="K55" s="11">
-        <v>139268</v>
+        <v>62651</v>
       </c>
       <c r="L55" s="11">
-        <v>62651</v>
+        <v>60772</v>
       </c>
       <c r="M55" s="11">
-        <v>60772</v>
+        <v>62052</v>
       </c>
       <c r="N55" s="11">
-        <v>62052</v>
+        <v>116810</v>
       </c>
       <c r="O55" s="11">
-        <v>116810</v>
+        <v>67590</v>
       </c>
       <c r="P55" s="11">
-        <v>67590</v>
+        <v>69627</v>
       </c>
       <c r="Q55" s="11">
-        <v>69627</v>
+        <v>91017</v>
       </c>
       <c r="R55" s="11">
-        <v>91017</v>
+        <v>59312</v>
       </c>
       <c r="S55" s="11">
-        <v>59312</v>
+        <v>18150</v>
       </c>
       <c r="T55" s="11">
-        <v>18150</v>
+        <v>1233</v>
       </c>
       <c r="U55" s="11">
-        <v>1233</v>
+        <v>50380</v>
       </c>
       <c r="V55" s="11">
-        <v>50380</v>
+        <v>76824</v>
       </c>
       <c r="W55" s="11">
-        <v>76824</v>
+        <v>57647</v>
       </c>
       <c r="X55" s="11">
-        <v>57647</v>
+        <v>66772</v>
       </c>
       <c r="Y55" s="11">
-        <v>66772</v>
+        <v>114099</v>
       </c>
       <c r="Z55" s="11">
-        <v>114099</v>
+        <v>93665</v>
       </c>
       <c r="AA55" s="11">
-        <v>93665</v>
+        <v>88003</v>
       </c>
       <c r="AB55" s="11">
-        <v>88003</v>
+        <v>192905</v>
       </c>
       <c r="AC55" s="11">
-        <v>192905</v>
+        <v>169549</v>
       </c>
       <c r="AD55" s="11">
-        <v>169549</v>
+        <v>159342</v>
       </c>
       <c r="AE55" s="11">
-        <v>159342</v>
+        <v>221986</v>
       </c>
       <c r="AF55" s="11">
-        <v>221986</v>
+        <v>226110</v>
       </c>
       <c r="AG55" s="11">
-        <v>226110</v>
+        <v>136292</v>
       </c>
       <c r="AH55" s="11">
-        <v>136292</v>
+        <v>187147</v>
       </c>
       <c r="AI55" s="11">
-        <v>187147</v>
+        <v>151873</v>
       </c>
       <c r="AJ55" s="11">
-        <v>151873</v>
+        <v>89300</v>
       </c>
       <c r="AK55" s="11">
-        <v>89300</v>
+        <v>18382</v>
       </c>
       <c r="AL55" s="11">
-        <v>18382</v>
+        <v>115081</v>
       </c>
       <c r="AM55" s="11">
-        <v>115081</v>
+        <v>281967</v>
       </c>
       <c r="AN55" s="11">
-        <v>281967</v>
+        <v>158385</v>
       </c>
       <c r="AO55" s="11">
-        <v>158385</v>
+        <v>105355</v>
       </c>
       <c r="AP55" s="11">
-        <v>105355</v>
+        <v>154544</v>
       </c>
       <c r="AQ55" s="11">
-        <v>154544</v>
+        <v>240819</v>
       </c>
       <c r="AR55" s="11">
-        <v>240819</v>
+        <v>208213</v>
       </c>
       <c r="AS55" s="11">
-        <v>208213</v>
+        <v>226001</v>
       </c>
       <c r="AT55" s="11">
-        <v>226001</v>
+        <v>199901</v>
       </c>
       <c r="AU55" s="11">
-        <v>199901</v>
+        <v>201631</v>
       </c>
       <c r="AV55" s="11">
-        <v>201631</v>
+        <v>188547</v>
       </c>
       <c r="AW55" s="11">
-        <v>188547</v>
+        <v>253609</v>
       </c>
       <c r="AX55" s="11">
-        <v>253609</v>
+        <v>304665</v>
       </c>
       <c r="AY55" s="11">
-        <v>304665</v>
+        <v>260700</v>
       </c>
       <c r="AZ55" s="11">
-        <v>260700</v>
+        <v>214492</v>
       </c>
       <c r="BA55" s="11">
-        <v>214492</v>
+        <v>231629</v>
       </c>
       <c r="BB55" s="11">
-        <v>231629</v>
+        <v>333255</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.25">
@@ -7187,154 +7187,154 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>149583</v>
+        <v>231162</v>
       </c>
       <c r="F56" s="13">
-        <v>231162</v>
+        <v>359817</v>
       </c>
       <c r="G56" s="13">
-        <v>359817</v>
+        <v>385717</v>
       </c>
       <c r="H56" s="13">
-        <v>385717</v>
+        <v>395466</v>
       </c>
       <c r="I56" s="13">
-        <v>395466</v>
+        <v>70657</v>
       </c>
       <c r="J56" s="13">
-        <v>70657</v>
+        <v>3309189</v>
       </c>
       <c r="K56" s="13">
-        <v>3309189</v>
+        <v>1755101</v>
       </c>
       <c r="L56" s="13">
-        <v>1755101</v>
+        <v>1771295</v>
       </c>
       <c r="M56" s="13">
-        <v>1771295</v>
+        <v>1840056</v>
       </c>
       <c r="N56" s="13">
-        <v>1840056</v>
+        <v>2053367</v>
       </c>
       <c r="O56" s="13">
-        <v>2053367</v>
+        <v>1886415</v>
       </c>
       <c r="P56" s="13">
-        <v>1886415</v>
+        <v>1961311</v>
       </c>
       <c r="Q56" s="13">
-        <v>1961311</v>
+        <v>2410207</v>
       </c>
       <c r="R56" s="13">
-        <v>2410207</v>
+        <v>1978865</v>
       </c>
       <c r="S56" s="13">
-        <v>1978865</v>
+        <v>2126608</v>
       </c>
       <c r="T56" s="13">
-        <v>2126608</v>
+        <v>1966865</v>
       </c>
       <c r="U56" s="13">
-        <v>1966865</v>
+        <v>2015445</v>
       </c>
       <c r="V56" s="13">
-        <v>2015445</v>
+        <v>2182855</v>
       </c>
       <c r="W56" s="13">
-        <v>2182855</v>
+        <v>5179880</v>
       </c>
       <c r="X56" s="13">
-        <v>5179880</v>
+        <v>6045093</v>
       </c>
       <c r="Y56" s="13">
-        <v>6045093</v>
+        <v>5477887</v>
       </c>
       <c r="Z56" s="13">
-        <v>5477887</v>
+        <v>5247656</v>
       </c>
       <c r="AA56" s="13">
-        <v>5247656</v>
+        <v>5064405</v>
       </c>
       <c r="AB56" s="13">
-        <v>5064405</v>
+        <v>8762225</v>
       </c>
       <c r="AC56" s="13">
-        <v>8762225</v>
+        <v>10885084</v>
       </c>
       <c r="AD56" s="13">
-        <v>10885084</v>
+        <v>6069458</v>
       </c>
       <c r="AE56" s="13">
-        <v>6069458</v>
+        <v>5700032</v>
       </c>
       <c r="AF56" s="13">
-        <v>5700032</v>
+        <v>7306007</v>
       </c>
       <c r="AG56" s="13">
-        <v>7306007</v>
+        <v>6415012</v>
       </c>
       <c r="AH56" s="13">
-        <v>6415012</v>
+        <v>3815024</v>
       </c>
       <c r="AI56" s="13">
-        <v>3815024</v>
+        <v>5323527</v>
       </c>
       <c r="AJ56" s="13">
-        <v>5323527</v>
+        <v>5764060</v>
       </c>
       <c r="AK56" s="13">
-        <v>5764060</v>
+        <v>10206075</v>
       </c>
       <c r="AL56" s="13">
-        <v>10206075</v>
+        <v>5592271</v>
       </c>
       <c r="AM56" s="13">
-        <v>5592271</v>
+        <v>10324615</v>
       </c>
       <c r="AN56" s="13">
-        <v>10324615</v>
+        <v>10468150</v>
       </c>
       <c r="AO56" s="13">
-        <v>10468150</v>
+        <v>7489708</v>
       </c>
       <c r="AP56" s="13">
-        <v>7489708</v>
+        <v>8978256</v>
       </c>
       <c r="AQ56" s="13">
-        <v>8978256</v>
+        <v>5123796</v>
       </c>
       <c r="AR56" s="13">
-        <v>5123796</v>
+        <v>10082933</v>
       </c>
       <c r="AS56" s="13">
-        <v>10082933</v>
+        <v>4301563</v>
       </c>
       <c r="AT56" s="13">
-        <v>4301563</v>
+        <v>9488221</v>
       </c>
       <c r="AU56" s="13">
-        <v>9488221</v>
+        <v>7239119</v>
       </c>
       <c r="AV56" s="13">
-        <v>7239119</v>
+        <v>7336307</v>
       </c>
       <c r="AW56" s="13">
-        <v>7336307</v>
+        <v>10485852</v>
       </c>
       <c r="AX56" s="13">
-        <v>10485852</v>
+        <v>6479264</v>
       </c>
       <c r="AY56" s="13">
-        <v>6479264</v>
+        <v>12231625</v>
       </c>
       <c r="AZ56" s="13">
-        <v>12231625</v>
+        <v>10850156</v>
       </c>
       <c r="BA56" s="13">
-        <v>10850156</v>
+        <v>7721068</v>
       </c>
       <c r="BB56" s="13">
-        <v>7721068</v>
+        <v>6624923</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.25">
@@ -7346,154 +7346,154 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>198705</v>
+        <v>896574</v>
       </c>
       <c r="F57" s="11">
-        <v>896574</v>
+        <v>378441</v>
       </c>
       <c r="G57" s="11">
-        <v>378441</v>
+        <v>530240</v>
       </c>
       <c r="H57" s="11">
-        <v>530240</v>
+        <v>395164</v>
       </c>
       <c r="I57" s="11">
-        <v>395164</v>
+        <v>770992</v>
       </c>
       <c r="J57" s="11">
-        <v>770992</v>
+        <v>52805</v>
       </c>
       <c r="K57" s="11">
-        <v>52805</v>
+        <v>408143</v>
       </c>
       <c r="L57" s="11">
-        <v>408143</v>
+        <v>782907</v>
       </c>
       <c r="M57" s="11">
-        <v>782907</v>
+        <v>530755</v>
       </c>
       <c r="N57" s="11">
-        <v>530755</v>
+        <v>837359</v>
       </c>
       <c r="O57" s="11">
-        <v>837359</v>
+        <v>946123</v>
       </c>
       <c r="P57" s="11">
-        <v>946123</v>
+        <v>130356</v>
       </c>
       <c r="Q57" s="11">
-        <v>130356</v>
+        <v>830334</v>
       </c>
       <c r="R57" s="11">
-        <v>830334</v>
+        <v>453660</v>
       </c>
       <c r="S57" s="11">
-        <v>453660</v>
+        <v>285705</v>
       </c>
       <c r="T57" s="11">
-        <v>285705</v>
+        <v>257275</v>
       </c>
       <c r="U57" s="11">
-        <v>257275</v>
+        <v>49851</v>
       </c>
       <c r="V57" s="11">
-        <v>49851</v>
+        <v>596176</v>
       </c>
       <c r="W57" s="11">
-        <v>596176</v>
+        <v>500498</v>
       </c>
       <c r="X57" s="11">
-        <v>500498</v>
+        <v>396079</v>
       </c>
       <c r="Y57" s="11">
-        <v>396079</v>
+        <v>731524</v>
       </c>
       <c r="Z57" s="11">
-        <v>731524</v>
+        <v>564976</v>
       </c>
       <c r="AA57" s="11">
-        <v>564976</v>
+        <v>745888</v>
       </c>
       <c r="AB57" s="11">
-        <v>745888</v>
+        <v>1461259</v>
       </c>
       <c r="AC57" s="11">
-        <v>1461259</v>
+        <v>3729152</v>
       </c>
       <c r="AD57" s="11">
-        <v>3729152</v>
+        <v>2775652</v>
       </c>
       <c r="AE57" s="11">
-        <v>2775652</v>
+        <v>432372</v>
       </c>
       <c r="AF57" s="11">
-        <v>432372</v>
+        <v>327688</v>
       </c>
       <c r="AG57" s="11">
-        <v>327688</v>
+        <v>1137928</v>
       </c>
       <c r="AH57" s="11">
-        <v>1137928</v>
+        <v>1341415</v>
       </c>
       <c r="AI57" s="11">
-        <v>1341415</v>
+        <v>1097586</v>
       </c>
       <c r="AJ57" s="11">
-        <v>1097586</v>
+        <v>437503</v>
       </c>
       <c r="AK57" s="11">
-        <v>437503</v>
+        <v>2025076</v>
       </c>
       <c r="AL57" s="11">
-        <v>2025076</v>
+        <v>987006</v>
       </c>
       <c r="AM57" s="11">
-        <v>987006</v>
+        <v>62544</v>
       </c>
       <c r="AN57" s="11">
-        <v>62544</v>
+        <v>28210</v>
       </c>
       <c r="AO57" s="11">
-        <v>28210</v>
+        <v>1560629</v>
       </c>
       <c r="AP57" s="11">
-        <v>1560629</v>
+        <v>1624470</v>
       </c>
       <c r="AQ57" s="11">
-        <v>1624470</v>
+        <v>1560939</v>
       </c>
       <c r="AR57" s="11">
-        <v>1560939</v>
+        <v>4200221</v>
       </c>
       <c r="AS57" s="11">
-        <v>4200221</v>
+        <v>2203975</v>
       </c>
       <c r="AT57" s="11">
-        <v>2203975</v>
+        <v>600286</v>
       </c>
       <c r="AU57" s="11">
-        <v>600286</v>
+        <v>2143728</v>
       </c>
       <c r="AV57" s="11">
-        <v>2143728</v>
+        <v>1391661</v>
       </c>
       <c r="AW57" s="11">
-        <v>1391661</v>
+        <v>336153</v>
       </c>
       <c r="AX57" s="11">
-        <v>336153</v>
+        <v>134815</v>
       </c>
       <c r="AY57" s="11">
-        <v>134815</v>
+        <v>1434264</v>
       </c>
       <c r="AZ57" s="11">
-        <v>1434264</v>
+        <v>3673470</v>
       </c>
       <c r="BA57" s="11">
-        <v>3673470</v>
+        <v>4646444</v>
       </c>
       <c r="BB57" s="11">
-        <v>4646444</v>
+        <v>1071310</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.25">
@@ -7609,8 +7609,8 @@
       <c r="T59" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="U59" s="17" t="s">
-        <v>67</v>
+      <c r="U59" s="17">
+        <v>0</v>
       </c>
       <c r="V59" s="17">
         <v>0</v>
@@ -7825,8 +7825,8 @@
       <c r="T61" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="U61" s="17" t="s">
-        <v>67</v>
+      <c r="U61" s="17">
+        <v>0</v>
       </c>
       <c r="V61" s="17">
         <v>0</v>
@@ -8041,8 +8041,8 @@
       <c r="T63" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="U63" s="11" t="s">
-        <v>67</v>
+      <c r="U63" s="11">
+        <v>0</v>
       </c>
       <c r="V63" s="11">
         <v>0</v>
@@ -8151,154 +8151,154 @@
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19">
-        <v>7709995</v>
+        <v>6747658</v>
       </c>
       <c r="F64" s="19">
-        <v>6747658</v>
+        <v>10075127</v>
       </c>
       <c r="G64" s="19">
-        <v>10075127</v>
+        <v>9224742</v>
       </c>
       <c r="H64" s="19">
-        <v>9224742</v>
+        <v>10762305</v>
       </c>
       <c r="I64" s="19">
-        <v>10762305</v>
+        <v>12492831</v>
       </c>
       <c r="J64" s="19">
-        <v>12492831</v>
+        <v>13161483</v>
       </c>
       <c r="K64" s="19">
-        <v>13161483</v>
+        <v>10179142</v>
       </c>
       <c r="L64" s="19">
-        <v>10179142</v>
+        <v>10956670</v>
       </c>
       <c r="M64" s="19">
-        <v>10956670</v>
+        <v>10570455</v>
       </c>
       <c r="N64" s="19">
-        <v>10570455</v>
+        <v>9923057</v>
       </c>
       <c r="O64" s="19">
-        <v>9923057</v>
+        <v>10317248</v>
       </c>
       <c r="P64" s="19">
-        <v>10317248</v>
+        <v>9543010</v>
       </c>
       <c r="Q64" s="19">
-        <v>9543010</v>
+        <v>11239685</v>
       </c>
       <c r="R64" s="19">
-        <v>11239685</v>
+        <v>9989125</v>
       </c>
       <c r="S64" s="19">
-        <v>9989125</v>
+        <v>8047077</v>
       </c>
       <c r="T64" s="19">
-        <v>8047077</v>
+        <v>8657454</v>
       </c>
       <c r="U64" s="19">
-        <v>8657454</v>
+        <v>9889543</v>
       </c>
       <c r="V64" s="19">
-        <v>9889543</v>
+        <v>13621529</v>
       </c>
       <c r="W64" s="19">
-        <v>13621529</v>
+        <v>18583428</v>
       </c>
       <c r="X64" s="19">
-        <v>18583428</v>
+        <v>17768684</v>
       </c>
       <c r="Y64" s="19">
-        <v>17768684</v>
+        <v>23764770</v>
       </c>
       <c r="Z64" s="19">
-        <v>23764770</v>
+        <v>24725327</v>
       </c>
       <c r="AA64" s="19">
-        <v>24725327</v>
+        <v>26626180</v>
       </c>
       <c r="AB64" s="19">
-        <v>26626180</v>
+        <v>32569176</v>
       </c>
       <c r="AC64" s="19">
-        <v>32569176</v>
+        <v>43181318</v>
       </c>
       <c r="AD64" s="19">
-        <v>43181318</v>
+        <v>31357903</v>
       </c>
       <c r="AE64" s="19">
-        <v>31357903</v>
+        <v>31110725</v>
       </c>
       <c r="AF64" s="19">
-        <v>31110725</v>
+        <v>32390979</v>
       </c>
       <c r="AG64" s="19">
-        <v>32390979</v>
+        <v>27153850</v>
       </c>
       <c r="AH64" s="19">
-        <v>27153850</v>
+        <v>20775150</v>
       </c>
       <c r="AI64" s="19">
-        <v>20775150</v>
+        <v>21338464</v>
       </c>
       <c r="AJ64" s="19">
-        <v>21338464</v>
+        <v>27886106</v>
       </c>
       <c r="AK64" s="19">
-        <v>27886106</v>
+        <v>35456759</v>
       </c>
       <c r="AL64" s="19">
-        <v>35456759</v>
+        <v>22290448</v>
       </c>
       <c r="AM64" s="19">
-        <v>22290448</v>
+        <v>35804526</v>
       </c>
       <c r="AN64" s="19">
-        <v>35804526</v>
+        <v>35473934</v>
       </c>
       <c r="AO64" s="19">
-        <v>35473934</v>
+        <v>33426382</v>
       </c>
       <c r="AP64" s="19">
-        <v>33426382</v>
+        <v>36853392</v>
       </c>
       <c r="AQ64" s="19">
-        <v>36853392</v>
+        <v>31579897</v>
       </c>
       <c r="AR64" s="19">
-        <v>31579897</v>
+        <v>38037567</v>
       </c>
       <c r="AS64" s="19">
-        <v>38037567</v>
+        <v>28970123</v>
       </c>
       <c r="AT64" s="19">
-        <v>28970123</v>
+        <v>32459950</v>
       </c>
       <c r="AU64" s="19">
-        <v>32459950</v>
+        <v>31955098</v>
       </c>
       <c r="AV64" s="19">
-        <v>31955098</v>
+        <v>31548178</v>
       </c>
       <c r="AW64" s="19">
-        <v>31548178</v>
+        <v>31025025</v>
       </c>
       <c r="AX64" s="19">
-        <v>31025025</v>
+        <v>29730988</v>
       </c>
       <c r="AY64" s="19">
-        <v>29730988</v>
+        <v>37403873</v>
       </c>
       <c r="AZ64" s="19">
-        <v>37403873</v>
+        <v>37217612</v>
       </c>
       <c r="BA64" s="19">
-        <v>37217612</v>
+        <v>39763609</v>
       </c>
       <c r="BB64" s="19">
-        <v>39763609</v>
+        <v>30170260</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.25">
@@ -8744,154 +8744,154 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>46062500</v>
+        <v>48720000</v>
       </c>
       <c r="F71" s="11">
-        <v>48720000</v>
+        <v>48681818</v>
       </c>
       <c r="G71" s="11">
-        <v>48681818</v>
+        <v>42727273</v>
       </c>
       <c r="H71" s="11">
-        <v>42727273</v>
+        <v>64600000</v>
       </c>
       <c r="I71" s="11">
-        <v>64600000</v>
+        <v>52500000</v>
       </c>
       <c r="J71" s="11">
-        <v>52500000</v>
+        <v>126096774</v>
       </c>
       <c r="K71" s="11">
-        <v>126096774</v>
+        <v>123514286</v>
       </c>
       <c r="L71" s="11">
-        <v>123514286</v>
+        <v>52677419</v>
       </c>
       <c r="M71" s="11">
-        <v>52677419</v>
+        <v>53241379</v>
       </c>
       <c r="N71" s="11">
-        <v>53241379</v>
+        <v>51254735</v>
       </c>
       <c r="O71" s="11">
-        <v>51254735</v>
+        <v>52858675</v>
       </c>
       <c r="P71" s="11">
-        <v>52858675</v>
+        <v>52369657</v>
       </c>
       <c r="Q71" s="11">
-        <v>52369657</v>
+        <v>62109091</v>
       </c>
       <c r="R71" s="11">
-        <v>62109091</v>
+        <v>51216380</v>
       </c>
       <c r="S71" s="11">
-        <v>51216380</v>
+        <v>48216333</v>
       </c>
       <c r="T71" s="11">
-        <v>48216333</v>
+        <v>20562186</v>
       </c>
       <c r="U71" s="11">
-        <v>20562186</v>
+        <v>21568511</v>
       </c>
       <c r="V71" s="11">
-        <v>21568511</v>
+        <v>56731791</v>
       </c>
       <c r="W71" s="11">
         <v>56731791</v>
       </c>
       <c r="X71" s="11">
-        <v>56731791</v>
+        <v>65634386</v>
       </c>
       <c r="Y71" s="11">
-        <v>65634386</v>
+        <v>82690755</v>
       </c>
       <c r="Z71" s="11">
-        <v>82690755</v>
+        <v>79649861</v>
       </c>
       <c r="AA71" s="11">
-        <v>79649861</v>
+        <v>79643211</v>
       </c>
       <c r="AB71" s="11">
-        <v>79643211</v>
+        <v>117123448</v>
       </c>
       <c r="AC71" s="11">
-        <v>117123448</v>
+        <v>92301962</v>
       </c>
       <c r="AD71" s="11">
-        <v>92301962</v>
+        <v>128884605</v>
       </c>
       <c r="AE71" s="11">
-        <v>128884605</v>
+        <v>127999183</v>
       </c>
       <c r="AF71" s="11">
-        <v>127999183</v>
+        <v>116009489</v>
       </c>
       <c r="AG71" s="11">
-        <v>116009489</v>
+        <v>105994884</v>
       </c>
       <c r="AH71" s="11">
-        <v>105994884</v>
+        <v>105994649</v>
       </c>
       <c r="AI71" s="11">
-        <v>105994649</v>
+        <v>135997377</v>
       </c>
       <c r="AJ71" s="11">
-        <v>135997377</v>
+        <v>136007097</v>
       </c>
       <c r="AK71" s="11">
-        <v>136007097</v>
+        <v>170142203</v>
       </c>
       <c r="AL71" s="11">
-        <v>170142203</v>
+        <v>151721221</v>
       </c>
       <c r="AM71" s="11">
-        <v>151721221</v>
+        <v>345000000</v>
       </c>
       <c r="AN71" s="11">
-        <v>345000000</v>
+        <v>194325476</v>
       </c>
       <c r="AO71" s="11">
-        <v>194325476</v>
+        <v>227525410</v>
       </c>
       <c r="AP71" s="11">
-        <v>227525410</v>
+        <v>219305288</v>
       </c>
       <c r="AQ71" s="11">
-        <v>219305288</v>
+        <v>212350679</v>
       </c>
       <c r="AR71" s="11">
-        <v>212350679</v>
+        <v>196664042</v>
       </c>
       <c r="AS71" s="11">
-        <v>196664042</v>
+        <v>194405491</v>
       </c>
       <c r="AT71" s="11">
-        <v>194405491</v>
+        <v>293136986</v>
       </c>
       <c r="AU71" s="11">
-        <v>293136986</v>
+        <v>-38949322</v>
       </c>
       <c r="AV71" s="11">
-        <v>-38949322</v>
+        <v>174891452</v>
       </c>
       <c r="AW71" s="11">
-        <v>174891452</v>
+        <v>320666667</v>
       </c>
       <c r="AX71" s="11">
-        <v>320666667</v>
+        <v>177194134</v>
       </c>
       <c r="AY71" s="11">
-        <v>177194134</v>
+        <v>380168269</v>
       </c>
       <c r="AZ71" s="11">
-        <v>380168269</v>
+        <v>193292247</v>
       </c>
       <c r="BA71" s="11">
-        <v>193292247</v>
+        <v>269118248</v>
       </c>
       <c r="BB71" s="11">
-        <v>269118248</v>
+        <v>199619968</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.25">
@@ -8903,154 +8903,154 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>45204976</v>
+        <v>44275244</v>
       </c>
       <c r="F72" s="13">
-        <v>44275244</v>
+        <v>44274174</v>
       </c>
       <c r="G72" s="13">
-        <v>44274174</v>
+        <v>45675001</v>
       </c>
       <c r="H72" s="13">
-        <v>45675001</v>
+        <v>48064770</v>
       </c>
       <c r="I72" s="13">
-        <v>48064770</v>
+        <v>47749550</v>
       </c>
       <c r="J72" s="13">
-        <v>47749550</v>
+        <v>52152487</v>
       </c>
       <c r="K72" s="13">
-        <v>52152487</v>
+        <v>51874300</v>
       </c>
       <c r="L72" s="13">
-        <v>51874300</v>
+        <v>47577858</v>
       </c>
       <c r="M72" s="13">
-        <v>47577858</v>
+        <v>46556329</v>
       </c>
       <c r="N72" s="13">
-        <v>46556329</v>
+        <v>46555534</v>
       </c>
       <c r="O72" s="13">
-        <v>46555534</v>
+        <v>48525338</v>
       </c>
       <c r="P72" s="13">
-        <v>48525338</v>
+        <v>47896216</v>
       </c>
       <c r="Q72" s="13">
-        <v>47896216</v>
+        <v>54310639</v>
       </c>
       <c r="R72" s="13">
-        <v>54310639</v>
+        <v>46758339</v>
       </c>
       <c r="S72" s="13">
-        <v>46758339</v>
+        <v>31758368</v>
       </c>
       <c r="T72" s="13">
-        <v>31758368</v>
+        <v>15928472</v>
       </c>
       <c r="U72" s="13">
-        <v>15928472</v>
+        <v>26321529</v>
       </c>
       <c r="V72" s="13">
-        <v>26321529</v>
+        <v>56220335</v>
       </c>
       <c r="W72" s="13">
-        <v>56220335</v>
+        <v>60220392</v>
       </c>
       <c r="X72" s="13">
-        <v>60220392</v>
+        <v>61781595</v>
       </c>
       <c r="Y72" s="13">
-        <v>61781595</v>
+        <v>86235419</v>
       </c>
       <c r="Z72" s="13">
-        <v>86235419</v>
+        <v>82235419</v>
       </c>
       <c r="AA72" s="13">
-        <v>82235419</v>
+        <v>91415394</v>
       </c>
       <c r="AB72" s="13">
-        <v>91415394</v>
+        <v>110345196</v>
       </c>
       <c r="AC72" s="13">
-        <v>110345196</v>
+        <v>122456227</v>
       </c>
       <c r="AD72" s="13">
-        <v>122456227</v>
+        <v>122345108</v>
       </c>
       <c r="AE72" s="13">
-        <v>122345108</v>
+        <v>114258383</v>
       </c>
       <c r="AF72" s="13">
-        <v>114258383</v>
+        <v>101258392</v>
       </c>
       <c r="AG72" s="13">
-        <v>101258392</v>
+        <v>114258341</v>
       </c>
       <c r="AH72" s="13">
-        <v>114258341</v>
+        <v>124140251</v>
       </c>
       <c r="AI72" s="13">
-        <v>124140251</v>
+        <v>133143030</v>
       </c>
       <c r="AJ72" s="13">
-        <v>133143030</v>
+        <v>136142558</v>
       </c>
       <c r="AK72" s="13">
-        <v>136142558</v>
+        <v>156841665</v>
       </c>
       <c r="AL72" s="13">
-        <v>156841665</v>
+        <v>138595251</v>
       </c>
       <c r="AM72" s="13">
-        <v>138595251</v>
+        <v>155584293</v>
       </c>
       <c r="AN72" s="13">
-        <v>155584293</v>
+        <v>186425422</v>
       </c>
       <c r="AO72" s="13">
-        <v>186425422</v>
+        <v>209960171</v>
       </c>
       <c r="AP72" s="13">
-        <v>209960171</v>
+        <v>201978621</v>
       </c>
       <c r="AQ72" s="13">
-        <v>201978621</v>
+        <v>191529023</v>
       </c>
       <c r="AR72" s="13">
-        <v>191529023</v>
+        <v>179365672</v>
       </c>
       <c r="AS72" s="13">
-        <v>179365672</v>
+        <v>176675136</v>
       </c>
       <c r="AT72" s="13">
-        <v>176675136</v>
+        <v>161137582</v>
       </c>
       <c r="AU72" s="13">
-        <v>161137582</v>
+        <v>145982410</v>
       </c>
       <c r="AV72" s="13">
-        <v>145982410</v>
+        <v>155777331</v>
       </c>
       <c r="AW72" s="13">
-        <v>155777331</v>
+        <v>164013186</v>
       </c>
       <c r="AX72" s="13">
-        <v>164013186</v>
+        <v>150373891</v>
       </c>
       <c r="AY72" s="13">
-        <v>150373891</v>
+        <v>154126294</v>
       </c>
       <c r="AZ72" s="13">
-        <v>154126294</v>
+        <v>176028568</v>
       </c>
       <c r="BA72" s="13">
-        <v>176028568</v>
+        <v>217542411</v>
       </c>
       <c r="BB72" s="13">
-        <v>217542411</v>
+        <v>176027020</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.25">
@@ -9062,154 +9062,154 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>75230094</v>
+        <v>76235988</v>
       </c>
       <c r="F73" s="11">
-        <v>76235988</v>
+        <v>76235998</v>
       </c>
       <c r="G73" s="11">
-        <v>76235998</v>
+        <v>89640929</v>
       </c>
       <c r="H73" s="11">
-        <v>89640929</v>
+        <v>109884602</v>
       </c>
       <c r="I73" s="11">
-        <v>109884602</v>
+        <v>108816396</v>
       </c>
       <c r="J73" s="11">
-        <v>108816396</v>
+        <v>98673382</v>
       </c>
       <c r="K73" s="11">
-        <v>98673382</v>
+        <v>97542857</v>
       </c>
       <c r="L73" s="11">
-        <v>97542857</v>
+        <v>98558220</v>
       </c>
       <c r="M73" s="11">
-        <v>98558220</v>
+        <v>99508183</v>
       </c>
       <c r="N73" s="11">
-        <v>99508183</v>
+        <v>94508213</v>
       </c>
       <c r="O73" s="11">
-        <v>94508213</v>
+        <v>94565323</v>
       </c>
       <c r="P73" s="11">
-        <v>94565323</v>
+        <v>94758669</v>
       </c>
       <c r="Q73" s="11">
-        <v>94758669</v>
+        <v>95549515</v>
       </c>
       <c r="R73" s="11">
-        <v>95549515</v>
+        <v>93988663</v>
       </c>
       <c r="S73" s="11">
-        <v>93988663</v>
+        <v>96157742</v>
       </c>
       <c r="T73" s="11">
-        <v>96157742</v>
+        <v>93856151</v>
       </c>
       <c r="U73" s="11">
-        <v>93856151</v>
+        <v>98559234</v>
       </c>
       <c r="V73" s="11">
-        <v>98559234</v>
+        <v>151129585</v>
       </c>
       <c r="W73" s="11">
-        <v>151129585</v>
+        <v>166421316</v>
       </c>
       <c r="X73" s="11">
-        <v>166421316</v>
+        <v>176008344</v>
       </c>
       <c r="Y73" s="11">
-        <v>176008344</v>
+        <v>199270433</v>
       </c>
       <c r="Z73" s="11">
-        <v>199270433</v>
+        <v>192530441</v>
       </c>
       <c r="AA73" s="11">
-        <v>192530441</v>
+        <v>198480528</v>
       </c>
       <c r="AB73" s="11">
-        <v>198480528</v>
+        <v>231864619</v>
       </c>
       <c r="AC73" s="11">
-        <v>231864619</v>
+        <v>257362693</v>
       </c>
       <c r="AD73" s="11">
-        <v>257362693</v>
+        <v>240058386</v>
       </c>
       <c r="AE73" s="11">
-        <v>240058386</v>
+        <v>267603857</v>
       </c>
       <c r="AF73" s="11">
-        <v>267603857</v>
+        <v>222062291</v>
       </c>
       <c r="AG73" s="11">
-        <v>222062291</v>
+        <v>210382858</v>
       </c>
       <c r="AH73" s="11">
-        <v>210382858</v>
+        <v>205078657</v>
       </c>
       <c r="AI73" s="11">
-        <v>205078657</v>
+        <v>241046878</v>
       </c>
       <c r="AJ73" s="11">
-        <v>241046878</v>
+        <v>266825795</v>
       </c>
       <c r="AK73" s="11">
-        <v>266825795</v>
+        <v>266558200</v>
       </c>
       <c r="AL73" s="11">
-        <v>266558200</v>
+        <v>291601638</v>
       </c>
       <c r="AM73" s="11">
-        <v>291601638</v>
+        <v>286900990</v>
       </c>
       <c r="AN73" s="11">
-        <v>286900990</v>
+        <v>292155823</v>
       </c>
       <c r="AO73" s="11">
-        <v>292155823</v>
+        <v>302706473</v>
       </c>
       <c r="AP73" s="11">
-        <v>302706473</v>
+        <v>313134967</v>
       </c>
       <c r="AQ73" s="11">
-        <v>313134967</v>
+        <v>343453454</v>
       </c>
       <c r="AR73" s="11">
-        <v>343453454</v>
+        <v>355835417</v>
       </c>
       <c r="AS73" s="11">
-        <v>355835417</v>
+        <v>370914766</v>
       </c>
       <c r="AT73" s="11">
-        <v>370914766</v>
+        <v>322064652</v>
       </c>
       <c r="AU73" s="11">
-        <v>322064652</v>
+        <v>283434772</v>
       </c>
       <c r="AV73" s="11">
-        <v>283434772</v>
+        <v>275645324</v>
       </c>
       <c r="AW73" s="11">
-        <v>275645324</v>
+        <v>308323398</v>
       </c>
       <c r="AX73" s="11">
-        <v>308323398</v>
+        <v>304946633</v>
       </c>
       <c r="AY73" s="11">
-        <v>304946633</v>
+        <v>313609261</v>
       </c>
       <c r="AZ73" s="11">
-        <v>313609261</v>
+        <v>304542017</v>
       </c>
       <c r="BA73" s="11">
-        <v>304542017</v>
+        <v>364053774</v>
       </c>
       <c r="BB73" s="11">
-        <v>364053774</v>
+        <v>383106485</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.25">
@@ -9221,154 +9221,154 @@
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
-        <v>52700163</v>
+        <v>53876276</v>
       </c>
       <c r="F74" s="13">
-        <v>53876276</v>
+        <v>53875764</v>
       </c>
       <c r="G74" s="13">
-        <v>53875764</v>
+        <v>54975869</v>
       </c>
       <c r="H74" s="13">
-        <v>54975869</v>
+        <v>56666939</v>
       </c>
       <c r="I74" s="13">
-        <v>56666939</v>
+        <v>57437207</v>
       </c>
       <c r="J74" s="13">
-        <v>57437207</v>
+        <v>75185195</v>
       </c>
       <c r="K74" s="13">
-        <v>75185195</v>
+        <v>74022193</v>
       </c>
       <c r="L74" s="13">
-        <v>74022193</v>
+        <v>67442646</v>
       </c>
       <c r="M74" s="13">
-        <v>67442646</v>
+        <v>66225728</v>
       </c>
       <c r="N74" s="13">
-        <v>66225728</v>
+        <v>60226694</v>
       </c>
       <c r="O74" s="13">
-        <v>60226694</v>
+        <v>61211823</v>
       </c>
       <c r="P74" s="13">
-        <v>61211823</v>
+        <v>60958408</v>
       </c>
       <c r="Q74" s="13">
-        <v>60958408</v>
+        <v>78101820</v>
       </c>
       <c r="R74" s="13">
-        <v>78101820</v>
+        <v>59624207</v>
       </c>
       <c r="S74" s="13">
-        <v>59624207</v>
+        <v>51623653</v>
       </c>
       <c r="T74" s="13">
-        <v>51623653</v>
+        <v>72162218</v>
       </c>
       <c r="U74" s="13">
-        <v>72162218</v>
+        <v>65854219</v>
       </c>
       <c r="V74" s="13">
-        <v>65854219</v>
+        <v>93378119</v>
       </c>
       <c r="W74" s="13">
-        <v>93378119</v>
+        <v>100376212</v>
       </c>
       <c r="X74" s="13">
-        <v>100376212</v>
+        <v>110454295</v>
       </c>
       <c r="Y74" s="13">
-        <v>110454295</v>
+        <v>156488380</v>
       </c>
       <c r="Z74" s="13">
-        <v>156488380</v>
+        <v>153487107</v>
       </c>
       <c r="AA74" s="13">
-        <v>153487107</v>
+        <v>186522912</v>
       </c>
       <c r="AB74" s="13">
-        <v>186522912</v>
+        <v>189328383</v>
       </c>
       <c r="AC74" s="13">
-        <v>189328383</v>
+        <v>198629321</v>
       </c>
       <c r="AD74" s="13">
-        <v>198629321</v>
+        <v>199462964</v>
       </c>
       <c r="AE74" s="13">
-        <v>199462964</v>
+        <v>189363495</v>
       </c>
       <c r="AF74" s="13">
-        <v>189363495</v>
+        <v>176366028</v>
       </c>
       <c r="AG74" s="13">
-        <v>176366028</v>
+        <v>156776225</v>
       </c>
       <c r="AH74" s="13">
-        <v>156776225</v>
+        <v>157805206</v>
       </c>
       <c r="AI74" s="13">
-        <v>157805206</v>
+        <v>162804806</v>
       </c>
       <c r="AJ74" s="13">
-        <v>162804806</v>
+        <v>165803177</v>
       </c>
       <c r="AK74" s="13">
-        <v>165803177</v>
+        <v>179367936</v>
       </c>
       <c r="AL74" s="13">
-        <v>179367936</v>
+        <v>179209973</v>
       </c>
       <c r="AM74" s="13">
-        <v>179209973</v>
+        <v>177849340</v>
       </c>
       <c r="AN74" s="13">
-        <v>177849340</v>
+        <v>200405211</v>
       </c>
       <c r="AO74" s="13">
-        <v>200405211</v>
+        <v>231129876</v>
       </c>
       <c r="AP74" s="13">
-        <v>231129876</v>
+        <v>232976552</v>
       </c>
       <c r="AQ74" s="13">
-        <v>232976552</v>
+        <v>211381635</v>
       </c>
       <c r="AR74" s="13">
-        <v>211381635</v>
+        <v>184134499</v>
       </c>
       <c r="AS74" s="13">
-        <v>184134499</v>
+        <v>178491802</v>
       </c>
       <c r="AT74" s="13">
-        <v>178491802</v>
+        <v>171029828</v>
       </c>
       <c r="AU74" s="13">
-        <v>171029828</v>
+        <v>171038342</v>
       </c>
       <c r="AV74" s="13">
-        <v>171038342</v>
+        <v>169552127</v>
       </c>
       <c r="AW74" s="13">
-        <v>169552127</v>
+        <v>163649966</v>
       </c>
       <c r="AX74" s="13">
-        <v>163649966</v>
+        <v>182856458</v>
       </c>
       <c r="AY74" s="13">
-        <v>182856458</v>
+        <v>181512743</v>
       </c>
       <c r="AZ74" s="13">
-        <v>181512743</v>
+        <v>201930742</v>
       </c>
       <c r="BA74" s="13">
-        <v>201930742</v>
+        <v>252987150</v>
       </c>
       <c r="BB74" s="13">
-        <v>252987150</v>
+        <v>198585062</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.25">
@@ -9380,154 +9380,154 @@
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
-        <v>61344848</v>
+        <v>62543170</v>
       </c>
       <c r="F75" s="11">
-        <v>62543170</v>
+        <v>62544911</v>
       </c>
       <c r="G75" s="11">
-        <v>62544911</v>
+        <v>68189761</v>
       </c>
       <c r="H75" s="11">
-        <v>68189761</v>
+        <v>70863154</v>
       </c>
       <c r="I75" s="11">
-        <v>70863154</v>
+        <v>65710326</v>
       </c>
       <c r="J75" s="11">
-        <v>65710326</v>
+        <v>68023798</v>
       </c>
       <c r="K75" s="11">
-        <v>68023798</v>
+        <v>67033770</v>
       </c>
       <c r="L75" s="11">
-        <v>67033770</v>
+        <v>70345863</v>
       </c>
       <c r="M75" s="11">
-        <v>70345863</v>
+        <v>70224458</v>
       </c>
       <c r="N75" s="11">
-        <v>70224458</v>
+        <v>66224698</v>
       </c>
       <c r="O75" s="11">
-        <v>66224698</v>
+        <v>65795811</v>
       </c>
       <c r="P75" s="11">
-        <v>65795811</v>
+        <v>65765918</v>
       </c>
       <c r="Q75" s="11">
-        <v>65765918</v>
+        <v>70557893</v>
       </c>
       <c r="R75" s="11">
-        <v>70557893</v>
+        <v>64656962</v>
       </c>
       <c r="S75" s="11">
-        <v>64656962</v>
+        <v>57657281</v>
       </c>
       <c r="T75" s="11">
-        <v>57657281</v>
+        <v>50195621</v>
       </c>
       <c r="U75" s="11">
-        <v>50195621</v>
+        <v>53235148</v>
       </c>
       <c r="V75" s="11">
-        <v>53235148</v>
+        <v>82204611</v>
       </c>
       <c r="W75" s="11">
-        <v>82204611</v>
+        <v>82204129</v>
       </c>
       <c r="X75" s="11">
-        <v>82204129</v>
+        <v>85217625</v>
       </c>
       <c r="Y75" s="11">
-        <v>85217625</v>
+        <v>140370911</v>
       </c>
       <c r="Z75" s="11">
-        <v>140370911</v>
+        <v>137370337</v>
       </c>
       <c r="AA75" s="11">
-        <v>137370337</v>
+        <v>167472114</v>
       </c>
       <c r="AB75" s="11">
-        <v>167472114</v>
+        <v>183522111</v>
       </c>
       <c r="AC75" s="11">
-        <v>183522111</v>
+        <v>159346509</v>
       </c>
       <c r="AD75" s="11">
-        <v>159346509</v>
+        <v>182897151</v>
       </c>
       <c r="AE75" s="11">
-        <v>182897151</v>
+        <v>196235214</v>
       </c>
       <c r="AF75" s="11">
-        <v>196235214</v>
+        <v>186237929</v>
       </c>
       <c r="AG75" s="11">
-        <v>186237929</v>
+        <v>168562527</v>
       </c>
       <c r="AH75" s="11">
-        <v>168562527</v>
+        <v>162602742</v>
       </c>
       <c r="AI75" s="11">
-        <v>162602742</v>
+        <v>173598748</v>
       </c>
       <c r="AJ75" s="11">
-        <v>173598748</v>
+        <v>182602757</v>
       </c>
       <c r="AK75" s="11">
-        <v>182602757</v>
+        <v>205285102</v>
       </c>
       <c r="AL75" s="11">
-        <v>205285102</v>
+        <v>191342187</v>
       </c>
       <c r="AM75" s="11">
-        <v>191342187</v>
+        <v>195859142</v>
       </c>
       <c r="AN75" s="11">
-        <v>195859142</v>
+        <v>202166129</v>
       </c>
       <c r="AO75" s="11">
-        <v>202166129</v>
+        <v>273821628</v>
       </c>
       <c r="AP75" s="11">
-        <v>273821628</v>
+        <v>284518183</v>
       </c>
       <c r="AQ75" s="11">
-        <v>284518183</v>
+        <v>243648866</v>
       </c>
       <c r="AR75" s="11">
-        <v>243648866</v>
+        <v>224502758</v>
       </c>
       <c r="AS75" s="11">
-        <v>224502758</v>
+        <v>214078953</v>
       </c>
       <c r="AT75" s="11">
-        <v>214078953</v>
+        <v>193809605</v>
       </c>
       <c r="AU75" s="11">
-        <v>193809605</v>
+        <v>203638518</v>
       </c>
       <c r="AV75" s="11">
-        <v>203638518</v>
+        <v>197804266</v>
       </c>
       <c r="AW75" s="11">
-        <v>197804266</v>
+        <v>177505528</v>
       </c>
       <c r="AX75" s="11">
-        <v>177505528</v>
+        <v>187817816</v>
       </c>
       <c r="AY75" s="11">
-        <v>187817816</v>
+        <v>171239693</v>
       </c>
       <c r="AZ75" s="11">
-        <v>171239693</v>
+        <v>195305081</v>
       </c>
       <c r="BA75" s="11">
-        <v>195305081</v>
+        <v>276877871</v>
       </c>
       <c r="BB75" s="11">
-        <v>276877871</v>
+        <v>198554276</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.25">
@@ -9539,154 +9539,154 @@
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13">
-        <v>31061114</v>
+        <v>32969576</v>
       </c>
       <c r="F76" s="13">
-        <v>32969576</v>
+        <v>32951968</v>
       </c>
       <c r="G76" s="13">
-        <v>32951968</v>
+        <v>29675474</v>
       </c>
       <c r="H76" s="13">
-        <v>29675474</v>
+        <v>29921955</v>
       </c>
       <c r="I76" s="13">
-        <v>29921955</v>
+        <v>30674465</v>
       </c>
       <c r="J76" s="13">
-        <v>30674465</v>
+        <v>34825101</v>
       </c>
       <c r="K76" s="13">
-        <v>34825101</v>
+        <v>33660727</v>
       </c>
       <c r="L76" s="13">
-        <v>33660727</v>
+        <v>33196563</v>
       </c>
       <c r="M76" s="13">
-        <v>33196563</v>
+        <v>34289261</v>
       </c>
       <c r="N76" s="13">
-        <v>34289261</v>
+        <v>32300401</v>
       </c>
       <c r="O76" s="13">
-        <v>32300401</v>
+        <v>32002201</v>
       </c>
       <c r="P76" s="13">
-        <v>32002201</v>
+        <v>31848915</v>
       </c>
       <c r="Q76" s="13">
-        <v>31848915</v>
+        <v>26745699</v>
       </c>
       <c r="R76" s="13">
-        <v>26745699</v>
+        <v>30802062</v>
       </c>
       <c r="S76" s="13">
-        <v>30802062</v>
+        <v>25802492</v>
       </c>
       <c r="T76" s="13">
-        <v>25802492</v>
+        <v>22983104</v>
       </c>
       <c r="U76" s="13">
-        <v>22983104</v>
+        <v>22542128</v>
       </c>
       <c r="V76" s="13">
-        <v>22542128</v>
+        <v>38136259</v>
       </c>
       <c r="W76" s="13">
-        <v>38136259</v>
+        <v>38135969</v>
       </c>
       <c r="X76" s="13">
-        <v>38135969</v>
+        <v>38563564</v>
       </c>
       <c r="Y76" s="13">
-        <v>38563564</v>
+        <v>46804534</v>
       </c>
       <c r="Z76" s="13">
-        <v>46804534</v>
+        <v>44623596</v>
       </c>
       <c r="AA76" s="13">
-        <v>44623596</v>
+        <v>53623975</v>
       </c>
       <c r="AB76" s="13">
-        <v>53623975</v>
+        <v>67804661</v>
       </c>
       <c r="AC76" s="13">
-        <v>67804661</v>
+        <v>74563800</v>
       </c>
       <c r="AD76" s="13">
-        <v>74563800</v>
+        <v>74527854</v>
       </c>
       <c r="AE76" s="13">
-        <v>74527854</v>
+        <v>77991208</v>
       </c>
       <c r="AF76" s="13">
-        <v>77991208</v>
+        <v>66557606</v>
       </c>
       <c r="AG76" s="13">
-        <v>66557606</v>
+        <v>57553571</v>
       </c>
       <c r="AH76" s="13">
-        <v>57553571</v>
+        <v>57564573</v>
       </c>
       <c r="AI76" s="13">
-        <v>57564573</v>
+        <v>62575304</v>
       </c>
       <c r="AJ76" s="13">
-        <v>62575304</v>
+        <v>64531987</v>
       </c>
       <c r="AK76" s="13">
-        <v>64531987</v>
+        <v>103271752</v>
       </c>
       <c r="AL76" s="13">
-        <v>103271752</v>
+        <v>100582002</v>
       </c>
       <c r="AM76" s="13">
-        <v>100582002</v>
+        <v>96409142</v>
       </c>
       <c r="AN76" s="13">
-        <v>96409142</v>
+        <v>101959754</v>
       </c>
       <c r="AO76" s="13">
-        <v>101959754</v>
+        <v>109467515</v>
       </c>
       <c r="AP76" s="13">
-        <v>109467515</v>
+        <v>127596290</v>
       </c>
       <c r="AQ76" s="13">
-        <v>127596290</v>
+        <v>133789608</v>
       </c>
       <c r="AR76" s="13">
-        <v>133789608</v>
+        <v>141821253</v>
       </c>
       <c r="AS76" s="13">
-        <v>141821253</v>
+        <v>147889625</v>
       </c>
       <c r="AT76" s="13">
-        <v>147889625</v>
+        <v>143527554</v>
       </c>
       <c r="AU76" s="13">
-        <v>143527554</v>
+        <v>120330785</v>
       </c>
       <c r="AV76" s="13">
-        <v>120330785</v>
+        <v>108973668</v>
       </c>
       <c r="AW76" s="13">
-        <v>108973668</v>
+        <v>99148900</v>
       </c>
       <c r="AX76" s="13">
-        <v>99148900</v>
+        <v>98073356</v>
       </c>
       <c r="AY76" s="13">
-        <v>98073356</v>
+        <v>96239472</v>
       </c>
       <c r="AZ76" s="13">
-        <v>96239472</v>
+        <v>93110826</v>
       </c>
       <c r="BA76" s="13">
-        <v>93110826</v>
+        <v>95510217</v>
       </c>
       <c r="BB76" s="13">
-        <v>95510217</v>
+        <v>105086450</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.25">
@@ -9698,154 +9698,154 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>71705479</v>
+        <v>39919672</v>
       </c>
       <c r="F77" s="11">
-        <v>39919672</v>
+        <v>72685131</v>
       </c>
       <c r="G77" s="11">
-        <v>72685131</v>
+        <v>82734143</v>
       </c>
       <c r="H77" s="11">
-        <v>82734143</v>
+        <v>78439655</v>
       </c>
       <c r="I77" s="11">
-        <v>78439655</v>
+        <v>89649476</v>
       </c>
       <c r="J77" s="11">
-        <v>89649476</v>
+        <v>95063481</v>
       </c>
       <c r="K77" s="11">
-        <v>95063481</v>
+        <v>94496229</v>
       </c>
       <c r="L77" s="11">
-        <v>94496229</v>
+        <v>94956250</v>
       </c>
       <c r="M77" s="11">
-        <v>94956250</v>
+        <v>95026034</v>
       </c>
       <c r="N77" s="11">
-        <v>95026034</v>
+        <v>97018272</v>
       </c>
       <c r="O77" s="11">
-        <v>97018272</v>
+        <v>95601132</v>
       </c>
       <c r="P77" s="11">
-        <v>95601132</v>
+        <v>95510288</v>
       </c>
       <c r="Q77" s="11">
-        <v>95510288</v>
+        <v>83501835</v>
       </c>
       <c r="R77" s="11">
-        <v>83501835</v>
+        <v>86713450</v>
       </c>
       <c r="S77" s="11">
-        <v>86713450</v>
+        <v>74691358</v>
       </c>
       <c r="T77" s="11">
-        <v>74691358</v>
+        <v>72529412</v>
       </c>
       <c r="U77" s="11">
-        <v>72529412</v>
+        <v>81258065</v>
       </c>
       <c r="V77" s="11">
-        <v>81258065</v>
+        <v>101753642</v>
       </c>
       <c r="W77" s="11">
-        <v>101753642</v>
+        <v>101670194</v>
       </c>
       <c r="X77" s="11">
-        <v>101670194</v>
+        <v>108396104</v>
       </c>
       <c r="Y77" s="11">
-        <v>108396104</v>
+        <v>153565276</v>
       </c>
       <c r="Z77" s="11">
-        <v>153565276</v>
+        <v>142564688</v>
       </c>
       <c r="AA77" s="11">
-        <v>142564688</v>
+        <v>147656040</v>
       </c>
       <c r="AB77" s="11">
-        <v>147656040</v>
+        <v>266443370</v>
       </c>
       <c r="AC77" s="11">
-        <v>266443370</v>
+        <v>262459752</v>
       </c>
       <c r="AD77" s="11">
-        <v>262459752</v>
+        <v>260362745</v>
       </c>
       <c r="AE77" s="11">
-        <v>260362745</v>
+        <v>253988558</v>
       </c>
       <c r="AF77" s="11">
-        <v>253988558</v>
+        <v>220165531</v>
       </c>
       <c r="AG77" s="11">
-        <v>220165531</v>
+        <v>221973941</v>
       </c>
       <c r="AH77" s="11">
-        <v>221973941</v>
+        <v>201233333</v>
       </c>
       <c r="AI77" s="11">
-        <v>201233333</v>
+        <v>253544240</v>
       </c>
       <c r="AJ77" s="11">
-        <v>253544240</v>
+        <v>258840580</v>
       </c>
       <c r="AK77" s="11">
-        <v>258840580</v>
+        <v>241868421</v>
       </c>
       <c r="AL77" s="11">
-        <v>241868421</v>
+        <v>265163594</v>
       </c>
       <c r="AM77" s="11">
-        <v>265163594</v>
+        <v>259638122</v>
       </c>
       <c r="AN77" s="11">
-        <v>259638122</v>
+        <v>245178019</v>
       </c>
       <c r="AO77" s="11">
-        <v>245178019</v>
+        <v>256338200</v>
       </c>
       <c r="AP77" s="11">
-        <v>256338200</v>
+        <v>283047619</v>
       </c>
       <c r="AQ77" s="11">
-        <v>283047619</v>
+        <v>323246980</v>
       </c>
       <c r="AR77" s="11">
-        <v>323246980</v>
+        <v>308921365</v>
       </c>
       <c r="AS77" s="11">
-        <v>308921365</v>
+        <v>332354412</v>
       </c>
       <c r="AT77" s="11">
-        <v>332354412</v>
+        <v>294839233</v>
       </c>
       <c r="AU77" s="11">
-        <v>294839233</v>
+        <v>266003958</v>
       </c>
       <c r="AV77" s="11">
-        <v>266003958</v>
+        <v>257226467</v>
       </c>
       <c r="AW77" s="11">
-        <v>257226467</v>
+        <v>272697849</v>
       </c>
       <c r="AX77" s="11">
-        <v>272697849</v>
+        <v>272022321</v>
       </c>
       <c r="AY77" s="11">
-        <v>272022321</v>
+        <v>254589844</v>
       </c>
       <c r="AZ77" s="11">
-        <v>254589844</v>
+        <v>279286458</v>
       </c>
       <c r="BA77" s="11">
-        <v>279286458</v>
+        <v>288454545</v>
       </c>
       <c r="BB77" s="11">
-        <v>288454545</v>
+        <v>337986815</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.25">
@@ -9857,154 +9857,154 @@
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
-        <v>71230000</v>
+        <v>72238125</v>
       </c>
       <c r="F78" s="13">
-        <v>72238125</v>
+        <v>72237904</v>
       </c>
       <c r="G78" s="13">
-        <v>72237904</v>
+        <v>86290157</v>
       </c>
       <c r="H78" s="13">
-        <v>86290157</v>
+        <v>94835971</v>
       </c>
       <c r="I78" s="13">
-        <v>94835971</v>
+        <v>82159302</v>
       </c>
       <c r="J78" s="13">
-        <v>82159302</v>
+        <v>99593373</v>
       </c>
       <c r="K78" s="13">
-        <v>99593373</v>
+        <v>98523689</v>
       </c>
       <c r="L78" s="13">
-        <v>98523689</v>
+        <v>91658215</v>
       </c>
       <c r="M78" s="13">
-        <v>91658215</v>
+        <v>89658237</v>
       </c>
       <c r="N78" s="13">
-        <v>89658237</v>
+        <v>86658240</v>
       </c>
       <c r="O78" s="13">
-        <v>86658240</v>
+        <v>87658690</v>
       </c>
       <c r="P78" s="13">
-        <v>87658690</v>
+        <v>88654839</v>
       </c>
       <c r="Q78" s="13">
-        <v>88654839</v>
+        <v>88816266</v>
       </c>
       <c r="R78" s="13">
-        <v>88816266</v>
+        <v>87894865</v>
       </c>
       <c r="S78" s="13">
-        <v>87894865</v>
+        <v>87406823</v>
       </c>
       <c r="T78" s="13">
-        <v>87406823</v>
+        <v>92580137</v>
       </c>
       <c r="U78" s="13">
-        <v>92580137</v>
+        <v>88501515</v>
       </c>
       <c r="V78" s="13">
-        <v>88501515</v>
+        <v>134213908</v>
       </c>
       <c r="W78" s="13">
-        <v>134213908</v>
+        <v>151431913</v>
       </c>
       <c r="X78" s="13">
-        <v>151431913</v>
+        <v>164300084</v>
       </c>
       <c r="Y78" s="13">
-        <v>164300084</v>
+        <v>189382437</v>
       </c>
       <c r="Z78" s="13">
-        <v>189382437</v>
+        <v>184024968</v>
       </c>
       <c r="AA78" s="13">
-        <v>184024968</v>
+        <v>187647004</v>
       </c>
       <c r="AB78" s="13">
-        <v>187647004</v>
+        <v>219566116</v>
       </c>
       <c r="AC78" s="13">
-        <v>219566116</v>
+        <v>317794114</v>
       </c>
       <c r="AD78" s="13">
-        <v>317794114</v>
+        <v>224105823</v>
       </c>
       <c r="AE78" s="13">
-        <v>224105823</v>
+        <v>259339915</v>
       </c>
       <c r="AF78" s="13">
-        <v>259339915</v>
+        <v>214151923</v>
       </c>
       <c r="AG78" s="13">
-        <v>214151923</v>
+        <v>215333893</v>
       </c>
       <c r="AH78" s="13">
-        <v>215333893</v>
+        <v>210286848</v>
       </c>
       <c r="AI78" s="13">
-        <v>210286848</v>
+        <v>228095762</v>
       </c>
       <c r="AJ78" s="13">
-        <v>228095762</v>
+        <v>253187209</v>
       </c>
       <c r="AK78" s="13">
-        <v>253187209</v>
+        <v>256382511</v>
       </c>
       <c r="AL78" s="13">
-        <v>256382511</v>
+        <v>281513768</v>
       </c>
       <c r="AM78" s="13">
-        <v>281513768</v>
+        <v>270277880</v>
       </c>
       <c r="AN78" s="13">
-        <v>270277880</v>
+        <v>265036585</v>
       </c>
       <c r="AO78" s="13">
-        <v>265036585</v>
+        <v>292030569</v>
       </c>
       <c r="AP78" s="13">
-        <v>292030569</v>
+        <v>275001715</v>
       </c>
       <c r="AQ78" s="13">
-        <v>275001715</v>
+        <v>281403559</v>
       </c>
       <c r="AR78" s="13">
-        <v>281403559</v>
+        <v>277026486</v>
       </c>
       <c r="AS78" s="13">
-        <v>277026486</v>
+        <v>267893318</v>
       </c>
       <c r="AT78" s="13">
-        <v>267893318</v>
+        <v>269919805</v>
       </c>
       <c r="AU78" s="13">
-        <v>269919805</v>
+        <v>231237431</v>
       </c>
       <c r="AV78" s="13">
-        <v>231237431</v>
+        <v>256326019</v>
       </c>
       <c r="AW78" s="13">
-        <v>256326019</v>
+        <v>265881941</v>
       </c>
       <c r="AX78" s="13">
-        <v>265881941</v>
+        <v>271166988</v>
       </c>
       <c r="AY78" s="13">
-        <v>271166988</v>
+        <v>265541215</v>
       </c>
       <c r="AZ78" s="13">
-        <v>265541215</v>
+        <v>265408283</v>
       </c>
       <c r="BA78" s="13">
-        <v>265408283</v>
+        <v>311333387</v>
       </c>
       <c r="BB78" s="13">
-        <v>311333387</v>
+        <v>314275285</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.25">
@@ -10016,154 +10016,154 @@
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
-        <v>72099057</v>
+        <v>74097025</v>
       </c>
       <c r="F79" s="11">
-        <v>74097025</v>
+        <v>74102408</v>
       </c>
       <c r="G79" s="11">
-        <v>74102408</v>
+        <v>67434821</v>
       </c>
       <c r="H79" s="11">
-        <v>67434821</v>
+        <v>76970004</v>
       </c>
       <c r="I79" s="11">
-        <v>76970004</v>
+        <v>97421279</v>
       </c>
       <c r="J79" s="11">
-        <v>97421279</v>
+        <v>93792185</v>
       </c>
       <c r="K79" s="11">
-        <v>93792185</v>
+        <v>92549433</v>
       </c>
       <c r="L79" s="11">
-        <v>92549433</v>
+        <v>110222019</v>
       </c>
       <c r="M79" s="11">
-        <v>110222019</v>
+        <v>111550021</v>
       </c>
       <c r="N79" s="11">
-        <v>111550021</v>
+        <v>110542442</v>
       </c>
       <c r="O79" s="11">
-        <v>110542442</v>
+        <v>99654835</v>
       </c>
       <c r="P79" s="11">
-        <v>99654835</v>
+        <v>106326264</v>
       </c>
       <c r="Q79" s="11">
-        <v>106326264</v>
+        <v>82243859</v>
       </c>
       <c r="R79" s="11">
-        <v>82243859</v>
+        <v>74664253</v>
       </c>
       <c r="S79" s="11">
-        <v>74664253</v>
+        <v>65664215</v>
       </c>
       <c r="T79" s="11">
-        <v>65664215</v>
+        <v>58246547</v>
       </c>
       <c r="U79" s="11">
-        <v>58246547</v>
+        <v>48587719</v>
       </c>
       <c r="V79" s="11">
-        <v>48587719</v>
+        <v>58528961</v>
       </c>
       <c r="W79" s="11">
-        <v>58528961</v>
+        <v>60062162</v>
       </c>
       <c r="X79" s="11">
-        <v>60062162</v>
+        <v>70577156</v>
       </c>
       <c r="Y79" s="11">
-        <v>70577156</v>
+        <v>79444396</v>
       </c>
       <c r="Z79" s="11">
-        <v>79444396</v>
+        <v>83563970</v>
       </c>
       <c r="AA79" s="11">
-        <v>83563970</v>
+        <v>98298366</v>
       </c>
       <c r="AB79" s="11">
-        <v>98298366</v>
+        <v>210768643</v>
       </c>
       <c r="AC79" s="11">
-        <v>210768643</v>
+        <v>95931675</v>
       </c>
       <c r="AD79" s="11">
-        <v>95931675</v>
+        <v>193223251</v>
       </c>
       <c r="AE79" s="11">
-        <v>193223251</v>
+        <v>183675446</v>
       </c>
       <c r="AF79" s="11">
-        <v>183675446</v>
+        <v>171654269</v>
       </c>
       <c r="AG79" s="11">
-        <v>171654269</v>
+        <v>115011926</v>
       </c>
       <c r="AH79" s="11">
-        <v>115011926</v>
+        <v>118207173</v>
       </c>
       <c r="AI79" s="11">
-        <v>118207173</v>
+        <v>175165337</v>
       </c>
       <c r="AJ79" s="11">
-        <v>175165337</v>
+        <v>172653118</v>
       </c>
       <c r="AK79" s="11">
-        <v>172653118</v>
+        <v>169363218</v>
       </c>
       <c r="AL79" s="11">
-        <v>169363218</v>
+        <v>148176850</v>
       </c>
       <c r="AM79" s="11">
-        <v>148176850</v>
+        <v>118230624</v>
       </c>
       <c r="AN79" s="11">
-        <v>118230624</v>
+        <v>117541667</v>
       </c>
       <c r="AO79" s="11">
-        <v>117541667</v>
+        <v>323446425</v>
       </c>
       <c r="AP79" s="11">
-        <v>323446425</v>
+        <v>347777778</v>
       </c>
       <c r="AQ79" s="11">
-        <v>347777778</v>
+        <v>298687141</v>
       </c>
       <c r="AR79" s="11">
-        <v>298687141</v>
+        <v>392140883</v>
       </c>
       <c r="AS79" s="11">
-        <v>392140883</v>
+        <v>309634026</v>
       </c>
       <c r="AT79" s="11">
-        <v>309634026</v>
+        <v>233030280</v>
       </c>
       <c r="AU79" s="11">
-        <v>233030280</v>
+        <v>210396310</v>
       </c>
       <c r="AV79" s="11">
-        <v>210396310</v>
+        <v>194149135</v>
       </c>
       <c r="AW79" s="11">
-        <v>194149135</v>
+        <v>183589842</v>
       </c>
       <c r="AX79" s="11">
-        <v>183589842</v>
+        <v>159733412</v>
       </c>
       <c r="AY79" s="11">
-        <v>159733412</v>
+        <v>212956793</v>
       </c>
       <c r="AZ79" s="11">
-        <v>212956793</v>
+        <v>249810949</v>
       </c>
       <c r="BA79" s="11">
-        <v>249810949</v>
+        <v>397675796</v>
       </c>
       <c r="BB79" s="11">
-        <v>397675796</v>
+        <v>269038172</v>
       </c>
     </row>
   </sheetData>
